--- a/实体 entity/实体骑乘高度数据.xlsx
+++ b/实体 entity/实体骑乘高度数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\实体 entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1689C6-956B-47F5-B708-8B3078ED28FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289FE636-0D87-4309-8410-25156FDEDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="59">
   <si>
     <t>最后五列用于excel的计算，根据使用的实体调整高度</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,12 +292,16 @@
     <t>生物的视线与地面的距离为 y 轴。如果视线位于固体方块内，生物将会窒息。（在铁轨上的数据会+1像素）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>僵尸猪灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +399,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -468,12 +486,294 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8D6771BB-58B0-47F2-9249-E3DC5351C918}"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1096,86 +1396,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
         <family val="3"/>
@@ -1208,85 +1428,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="0" tint="-0.249977111117893"/>
         <name val="等线"/>
         <family val="3"/>
@@ -1298,86 +1439,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1632,128 +1693,128 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E68BA1FC-5873-4E2E-99DD-3D126C66F3BC}" name="表7_3" displayName="表7_3" ref="A2:M46" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A2:M46" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E68BA1FC-5873-4E2E-99DD-3D126C66F3BC}" name="表7_3" displayName="表7_3" ref="A2:M52" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A2:M52" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{28FA0ADE-FA24-4C69-8AC0-B8136613F3B9}" name="组合编号" dataDxfId="69"/>
-    <tableColumn id="15" xr3:uid="{39F2DF11-91FD-4588-80CC-35CC7D44B70F}" name="矿车" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{0F07B471-4667-4108-969E-BA2015CF52FF}" name="船/竹筏" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{97BF810A-53C7-451D-9919-6761B4340729}" name="生物" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{E65C589F-3C0F-42D2-B8A0-926C9E722354}" name="无轨视高" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{28FA0ADE-FA24-4C69-8AC0-B8136613F3B9}" name="组合编号" dataDxfId="72"/>
+    <tableColumn id="15" xr3:uid="{39F2DF11-91FD-4588-80CC-35CC7D44B70F}" name="矿车" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{0F07B471-4667-4108-969E-BA2015CF52FF}" name="船/竹筏" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{97BF810A-53C7-451D-9919-6761B4340729}" name="生物" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{E65C589F-3C0F-42D2-B8A0-926C9E722354}" name="无轨视高" dataDxfId="68">
       <calculatedColumnFormula>INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A6ABFFDB-354E-4C09-9E8E-EA8D1A01E7AE}" name="有轨视高" dataDxfId="64">
+    <tableColumn id="9" xr3:uid="{A6ABFFDB-354E-4C09-9E8E-EA8D1A01E7AE}" name="有轨视高" dataDxfId="67">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3BB918C4-E0AA-43D5-9296-02D16A459FCB}" name="无轨高度" dataDxfId="63">
+    <tableColumn id="6" xr3:uid="{3BB918C4-E0AA-43D5-9296-02D16A459FCB}" name="无轨高度" dataDxfId="66">
       <calculatedColumnFormula>INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FE577ECA-8793-41AD-891F-AF1FD4FC96C9}" name="有轨高度" dataDxfId="62">
+    <tableColumn id="7" xr3:uid="{FE577ECA-8793-41AD-891F-AF1FD4FC96C9}" name="有轨高度" dataDxfId="65">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A79C77AB-332C-4A15-ACFD-BB9B8E6B2E05}" name="生物无轨窒息高度" dataDxfId="61">
+    <tableColumn id="5" xr3:uid="{A79C77AB-332C-4A15-ACFD-BB9B8E6B2E05}" name="生物无轨窒息高度" dataDxfId="64">
       <calculatedColumnFormula>INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D2760891-ECED-418D-992A-272FD57402D5}" name="矿车2" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{85C84BFC-4C27-47F4-8C56-247443488509}" name="船/竹筏2" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{D713370E-119E-4321-B744-2A47B1781AB7}" name="生物2" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{E24A8876-FD36-497F-B5EA-E360001E9E02}" name="生物视高" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{D2760891-ECED-418D-992A-272FD57402D5}" name="矿车2" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{85C84BFC-4C27-47F4-8C56-247443488509}" name="船/竹筏2" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{D713370E-119E-4321-B744-2A47B1781AB7}" name="生物2" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{E24A8876-FD36-497F-B5EA-E360001E9E02}" name="生物视高" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9667C568-8A61-48D5-8003-01B5130E543D}" name="表7" displayName="表7" ref="A2:M46" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A2:M46" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9667C568-8A61-48D5-8003-01B5130E543D}" name="表7" displayName="表7" ref="A2:M52" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A2:M52" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1A5B9393-745A-40B5-99A3-4C560CC7B2F3}" name="组合编号" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{3B8A2C49-42F1-4867-BF42-2822CDF5E16D}" name="矿车" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{48622B21-7452-4541-82EE-988C88AE65A7}" name="船/竹筏" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{3ABEA036-6A6C-45C5-AA84-DA2D9F697B3D}" name="生物" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{33D96CCA-ACD8-46A8-A267-E02365DAC666}" name="无轨视高" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{1A5B9393-745A-40B5-99A3-4C560CC7B2F3}" name="组合编号" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{3B8A2C49-42F1-4867-BF42-2822CDF5E16D}" name="矿车" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{48622B21-7452-4541-82EE-988C88AE65A7}" name="船/竹筏" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{3ABEA036-6A6C-45C5-AA84-DA2D9F697B3D}" name="生物" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{33D96CCA-ACD8-46A8-A267-E02365DAC666}" name="无轨视高" dataDxfId="61">
       <calculatedColumnFormula>SUM(J3:L3)+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{598FE69C-AF3A-46F1-AA80-7BF4B0C020CC}" name="有轨视高" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{598FE69C-AF3A-46F1-AA80-7BF4B0C020CC}" name="有轨视高" dataDxfId="60">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F66481C1-D9A2-4C5D-B8A5-F66D7C951622}" name="无轨高度" dataDxfId="48">
+    <tableColumn id="6" xr3:uid="{F66481C1-D9A2-4C5D-B8A5-F66D7C951622}" name="无轨高度" dataDxfId="59">
       <calculatedColumnFormula>SUM(J3:L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F4B5C6C8-A44A-4E9B-84C0-2F1A0C1E9F82}" name="有轨高度" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{F4B5C6C8-A44A-4E9B-84C0-2F1A0C1E9F82}" name="有轨高度" dataDxfId="58">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B429005B-3C2A-4B29-BC01-522C8E5715A5}" name="生物无轨窒息高度" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{B429005B-3C2A-4B29-BC01-522C8E5715A5}" name="生物无轨窒息高度" dataDxfId="57">
       <calculatedColumnFormula>SUM(J3:K3)+M3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{52A6878A-9E03-4079-BD2A-D65774A088C3}" name="矿车2" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{53922683-A52C-4BB1-8910-A8475D84622A}" name="船/竹筏2" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{A29EB1E0-DDBB-4484-A5E5-D5BB3182F6F2}" name="生物2" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{4547FA66-A0F5-4A59-A7D1-7C2E362EC1FF}" name="生物视高" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{52A6878A-9E03-4079-BD2A-D65774A088C3}" name="矿车2" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{53922683-A52C-4BB1-8910-A8475D84622A}" name="船/竹筏2" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A29EB1E0-DDBB-4484-A5E5-D5BB3182F6F2}" name="生物2" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{4547FA66-A0F5-4A59-A7D1-7C2E362EC1FF}" name="生物视高" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7804400-5991-40F3-9F65-9262C6E8D518}" name="表7_24" displayName="表7_24" ref="A2:M44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7804400-5991-40F3-9F65-9262C6E8D518}" name="表7_24" displayName="表7_24" ref="A2:M44" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A2:M44" xr:uid="{27945CDA-254B-4AA6-84AD-AE71E61FA140}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{71E3AFDE-E1EF-48EB-A226-652C7D1369ED}" name="组合编号" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{2D9E2A5A-60D2-43EA-9A05-9F75861AA009}" name="矿车" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{760FA158-F887-4326-B47C-92E490F67D50}" name="船/竹筏" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{001C7352-6C93-456E-8F0C-A3A0F9ADF2B0}" name="生物" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{9EEC54D2-02E5-494F-B896-BEDED7E09D17}" name="无轨视高" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{71E3AFDE-E1EF-48EB-A226-652C7D1369ED}" name="组合编号" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{2D9E2A5A-60D2-43EA-9A05-9F75861AA009}" name="矿车" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{760FA158-F887-4326-B47C-92E490F67D50}" name="船/竹筏" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{001C7352-6C93-456E-8F0C-A3A0F9ADF2B0}" name="生物" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{9EEC54D2-02E5-494F-B896-BEDED7E09D17}" name="无轨视高" dataDxfId="50">
       <calculatedColumnFormula>INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AE11D3FC-BAAE-46BC-846B-D78E065D710A}" name="有轨视高" dataDxfId="34">
+    <tableColumn id="9" xr3:uid="{AE11D3FC-BAAE-46BC-846B-D78E065D710A}" name="有轨视高" dataDxfId="49">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{049640C2-6E76-4794-8267-3C79E3B9FB9E}" name="无轨高度" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{049640C2-6E76-4794-8267-3C79E3B9FB9E}" name="无轨高度" dataDxfId="48">
       <calculatedColumnFormula>INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{57B1C658-DCA8-4E48-BF5C-F752585B483F}" name="有轨高度" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{57B1C658-DCA8-4E48-BF5C-F752585B483F}" name="有轨高度" dataDxfId="47">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{911BBDC5-04F5-4304-81DC-D358149928A3}" name="生物无轨窒息高度" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{911BBDC5-04F5-4304-81DC-D358149928A3}" name="生物无轨窒息高度" dataDxfId="46">
       <calculatedColumnFormula>INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6272152D-6FB1-471F-813E-31616DD66D07}" name="矿车2" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{1E8474CC-D3FA-458D-A233-D3147C29E74F}" name="船/竹筏2" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{BE69942E-4AB4-4CDE-B3FA-79058FCD3C64}" name="生物2" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{6B2C6DD5-6298-491E-84EF-95C5DE2AA271}" name="生物视高" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{6272152D-6FB1-471F-813E-31616DD66D07}" name="矿车2" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{1E8474CC-D3FA-458D-A233-D3147C29E74F}" name="船/竹筏2" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{BE69942E-4AB4-4CDE-B3FA-79058FCD3C64}" name="生物2" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{6B2C6DD5-6298-491E-84EF-95C5DE2AA271}" name="生物视高" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8553EB68-81AD-4D84-8F6D-209C73F22DFF}" name="表7_2" displayName="表7_2" ref="A2:M44" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8553EB68-81AD-4D84-8F6D-209C73F22DFF}" name="表7_2" displayName="表7_2" ref="A2:M44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A2:M44" xr:uid="{27945CDA-254B-4AA6-84AD-AE71E61FA140}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{E3252128-2842-475D-836E-19597AAACB23}" name="组合编号" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{1A256CD6-F969-4F8A-BF08-782638A053C7}" name="矿车" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{139D25BD-5769-4E1F-A9B3-54F4E782916C}" name="船/竹筏" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{590934DE-6D63-4E32-A2BD-E6D9EEFB943B}" name="生物" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{4205D7C0-92A8-4837-939F-E2DA06176A19}" name="无轨视高" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{E3252128-2842-475D-836E-19597AAACB23}" name="组合编号" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{1A256CD6-F969-4F8A-BF08-782638A053C7}" name="矿车" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{139D25BD-5769-4E1F-A9B3-54F4E782916C}" name="船/竹筏" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{590934DE-6D63-4E32-A2BD-E6D9EEFB943B}" name="生物" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{4205D7C0-92A8-4837-939F-E2DA06176A19}" name="无轨视高" dataDxfId="35">
       <calculatedColumnFormula>SUM(J3:L3)+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{67B3BB23-165B-4512-8ECD-5E32DF8E967C}" name="有轨视高" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{67B3BB23-165B-4512-8ECD-5E32DF8E967C}" name="有轨视高" dataDxfId="34">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1854081-3CCD-47A4-8AC7-A6D4D09865AF}" name="无轨高度" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{C1854081-3CCD-47A4-8AC7-A6D4D09865AF}" name="无轨高度" dataDxfId="33">
       <calculatedColumnFormula>SUM(J3:L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C13933C2-8933-4303-A309-B7187722B680}" name="有轨高度" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{C13933C2-8933-4303-A309-B7187722B680}" name="有轨高度" dataDxfId="32">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1FEBA74-5381-4FEA-B4CA-A6B60B7AF7D5}" name="生物无轨窒息高度" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{A1FEBA74-5381-4FEA-B4CA-A6B60B7AF7D5}" name="生物无轨窒息高度" dataDxfId="31">
       <calculatedColumnFormula>SUM(J3:K3)+M3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1664F24A-A49A-43FD-84D6-EA805F9ED691}" name="矿车2" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{2AEE38F2-0B0B-4C64-923E-656338A16C44}" name="船/竹筏2" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{44162916-A597-48D8-ABD1-2FEC989945C2}" name="生物2" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{09CE5323-8E54-4DBC-AA57-EEF2127DE728}" name="生物视高" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{1664F24A-A49A-43FD-84D6-EA805F9ED691}" name="矿车2" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{2AEE38F2-0B0B-4C64-923E-656338A16C44}" name="船/竹筏2" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{44162916-A597-48D8-ABD1-2FEC989945C2}" name="生物2" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{09CE5323-8E54-4DBC-AA57-EEF2127DE728}" name="生物视高" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2179,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26207E-1334-4633-A049-242B47862D3D}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2270,29 +2331,29 @@
         <v>29</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E46" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E3:E52" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F46" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F3:F52" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 10.92px</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G46" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
+        <f t="shared" ref="G3:G52" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
         <v>0m 0px</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:H46" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H3:H52" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
         <v>0m 1px</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I46" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
+        <f t="shared" ref="I3:I52" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
         <v>1.62</v>
       </c>
       <c r="N3" s="5"/>
@@ -2328,12 +2389,12 @@
         <f t="shared" si="4"/>
         <v>1m 3.32px</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>1.62</v>
       </c>
       <c r="N4" s="5"/>
@@ -2370,12 +2431,12 @@
         <f t="shared" si="4"/>
         <v>1m 3.32px</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
         <v>1.62</v>
       </c>
       <c r="N5" s="5"/>
@@ -2411,12 +2472,12 @@
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
         <v>1.62</v>
       </c>
       <c r="N6" s="5"/>
@@ -2455,14 +2516,14 @@
         <f t="shared" si="4"/>
         <v>1m 6.32px</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23">
         <v>1.62</v>
       </c>
       <c r="N7" s="5"/>
@@ -2501,14 +2562,14 @@
         <f t="shared" si="4"/>
         <v>1m 11.32px</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="23">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
         <v>1.62</v>
       </c>
       <c r="N8" s="5"/>
@@ -2541,12 +2602,12 @@
         <f t="shared" si="4"/>
         <v>0m 12.24px</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="23">
         <v>0.76500000000000001</v>
       </c>
       <c r="N9" s="5"/>
@@ -2579,12 +2640,12 @@
         <f t="shared" si="4"/>
         <v>1m 6.8px</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23">
         <v>0.51249999999999996</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="23">
         <v>1.425</v>
       </c>
       <c r="N10" s="5"/>
@@ -2617,12 +2678,12 @@
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23">
         <v>0.61250000000000004</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="23">
         <v>1.52</v>
       </c>
       <c r="N11" s="5"/>
@@ -2655,12 +2716,12 @@
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23">
         <v>0.71875</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="23">
         <v>1.52</v>
       </c>
       <c r="N12" s="5"/>
@@ -2693,12 +2754,12 @@
         <f t="shared" si="4"/>
         <v>1m 12.424px</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23">
         <v>0.77</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="23">
         <v>1.7765</v>
       </c>
       <c r="N13" s="5"/>
@@ -2731,12 +2792,12 @@
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23">
         <v>0.84375</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="23">
         <v>1.52</v>
       </c>
       <c r="N14" s="5"/>
@@ -2769,12 +2830,12 @@
         <f t="shared" si="4"/>
         <v>1m 7.12px</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N15" s="5"/>
@@ -2809,12 +2870,12 @@
         <f t="shared" si="4"/>
         <v>1m 7.12px</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23">
         <v>2.8</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N16" s="5"/>
@@ -2849,12 +2910,12 @@
         <f t="shared" si="4"/>
         <v>1m 0.719999999999999px</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
         <v>0.17</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="23">
         <v>1.0449999999999999</v>
       </c>
       <c r="N17" s="5"/>
@@ -2887,12 +2948,12 @@
         <f t="shared" si="4"/>
         <v>2m 4.4px</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23">
         <v>1.4</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="23">
         <v>2.2749999999999999</v>
       </c>
       <c r="N18" s="5"/>
@@ -2905,35 +2966,35 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>5m 0.319999999999993px</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5m 1.31999999999999px</v>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3m 6.4px</v>
-      </c>
-      <c r="H19" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 7.4px</v>
+        <v>58</v>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f>INT(SUM(J19:L19)+1.62)&amp;"m "&amp;((SUM(J19:L19)+1.62)-INT(SUM(J19:L19)+1.62))*16&amp;"px"</f>
+        <v>3m 0.32px</v>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f>INT(SUM(J19:L19)+0.0625+1.62)&amp;"m "&amp;((SUM(J19:L19)+0.0625+1.62)-INT(SUM(J19:L19)+0.0625+1.62))*16&amp;"px"</f>
+        <v>3m 1.32px</v>
+      </c>
+      <c r="G19" s="22" t="str">
+        <f>INT(SUM(J19:L19))&amp;"m "&amp;((SUM(J19:L19))-INT(SUM(J19:L19)))*16&amp;"px"</f>
+        <v>1m 6.4px</v>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f>INT(SUM(J19:L19)+0.0625)&amp;"m "&amp;((SUM(J19:L19)+0.0625)-INT(SUM(J19:L19)+0.0625))*16&amp;"px"</f>
+        <v>1m 7.4px</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>2m 9.6px</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2.6</v>
+        <f>INT(SUM(J19:K19)+M19)&amp;"m "&amp;((SUM(J19:K19)+M19)-INT(SUM(J19:K19)+M19))*16&amp;"px"</f>
+        <v>1m 12.64px</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1.79</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -2942,41 +3003,38 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 1.22px</v>
+        <v>5m 0.319999999999993px</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 2.22px</v>
+        <v>5m 1.31999999999999px</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 7.3px</v>
+        <v>3m 6.4px</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 8.3px</v>
+        <v>3m 7.4px</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.76500000000000001</v>
+        <v>2m 9.6px</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="M20" s="23">
+        <v>2.6</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -2989,37 +3047,37 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 5.12px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 6.12px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 11.2px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 12.2px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 9.8px</v>
-      </c>
-      <c r="J21" s="6">
+        <v>0m 15.24px</v>
+      </c>
+      <c r="J21" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1.425</v>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3032,37 +3090,37 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 6.72px</v>
+        <v>2m 5.12px</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 7.72px</v>
+        <v>2m 6.12px</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 12.8px</v>
+        <v>0m 11.2px</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 13.8px</v>
+        <v>0m 12.2px</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 11.32px</v>
-      </c>
-      <c r="J22" s="6">
+        <v>1m 9.8px</v>
+      </c>
+      <c r="J22" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1.52</v>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1.425</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3075,36 +3133,36 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 8.42px</v>
+        <v>2m 6.72px</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 9.42px</v>
+        <v>2m 7.72px</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 14.5px</v>
+        <v>0m 12.8px</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 15.5px</v>
+        <v>0m 13.8px</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1m 11.32px</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>0.71875</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M23" s="23">
         <v>1.52</v>
       </c>
       <c r="N23" s="5"/>
@@ -3118,37 +3176,37 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 9.24px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 10.24px</v>
+        <v>2m 9.42px</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 15.32px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 0.32px</v>
+        <v>0m 15.5px</v>
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J24" s="6">
+        <v>1m 11.32px</v>
+      </c>
+      <c r="J24" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1.7765</v>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1.52</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3161,37 +3219,37 @@
         <v>17</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 10.42px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 11.42px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 0.5px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 1.5px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 11.32px</v>
-      </c>
-      <c r="J25" s="6">
+        <v>1m 15.424px</v>
+      </c>
+      <c r="J25" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1.52</v>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1.7765</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -3204,37 +3262,37 @@
         <v>17</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.52px</v>
+        <v>2m 10.42px</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.52px</v>
+        <v>2m 11.42px</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.6px</v>
+        <v>1m 0.5px</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.6px</v>
+        <v>1m 1.5px</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J26" s="6">
+        <v>1m 11.32px</v>
+      </c>
+      <c r="J26" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1.4450000000000001</v>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23">
+        <v>0.84375</v>
+      </c>
+      <c r="M26" s="23">
+        <v>1.52</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -3247,36 +3305,36 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 9.72px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 10.72px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2m 15.8px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1m 10.12px</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="K27" s="23"/>
+      <c r="L27" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M27" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N27" s="5"/>
@@ -3290,37 +3348,37 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1m 15.64px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 0.640000000000001px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 5.72px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 6.72px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 3.72px</v>
-      </c>
-      <c r="J28" s="6">
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J28" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1.0449999999999999</v>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M28" s="23">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -3333,37 +3391,37 @@
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 3.32px</v>
+        <v>1m 15.64px</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 4.32px</v>
+        <v>2m 0.640000000000001px</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 9.4px</v>
+        <v>0m 5.72px</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 10.4px</v>
+        <v>0m 6.72px</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 7.4px</v>
-      </c>
-      <c r="J29" s="6">
+        <v>1m 3.72px</v>
+      </c>
+      <c r="J29" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="M29" s="6">
-        <v>2.2749999999999999</v>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="M29" s="23">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3375,39 +3433,38 @@
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5m 11.32px</v>
+        <v>3m 3.32px</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5m 12.32px</v>
+        <v>3m 4.32px</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>4m 1.40000000000001px</v>
+        <v>1m 9.4px</v>
       </c>
       <c r="H30" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>4m 2.40000000000001px</v>
+        <v>1m 10.4px</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>3m 4.6px</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2.6</v>
+        <v>2m 7.4px</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M30" s="23">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -3416,41 +3473,42 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 1.22px</v>
-      </c>
-      <c r="F31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 2.22px</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 7.3px</v>
-      </c>
-      <c r="H31" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0m 8.3px</v>
+        <v>58</v>
+      </c>
+      <c r="E31" s="21" t="str">
+        <f>INT(SUM(J31:L31)+1.62)&amp;"m "&amp;((SUM(J31:L31)+1.62)-INT(SUM(J31:L31)+1.62))*16&amp;"px"</f>
+        <v>2m 9.12px</v>
+      </c>
+      <c r="F31" s="21" t="str">
+        <f>INT(SUM(J31:L31)+0.0625+1.62)&amp;"m "&amp;((SUM(J31:L31)+0.0625+1.62)-INT(SUM(J31:L31)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 10.12px</v>
+      </c>
+      <c r="G31" s="22" t="str">
+        <f>INT(SUM(J31:L31))&amp;"m "&amp;((SUM(J31:L31))-INT(SUM(J31:L31)))*16&amp;"px"</f>
+        <v>0m 15.2px</v>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f>INT(SUM(J31:L31)+0.0625)&amp;"m "&amp;((SUM(J31:L31)+0.0625)-INT(SUM(J31:L31)+0.0625))*16&amp;"px"</f>
+        <v>1m 0.199999999999999px</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0.76500000000000001</v>
+        <f>INT(SUM(J31:K31)+M31)&amp;"m "&amp;((SUM(J31:K31)+M31)-INT(SUM(J31:K31)+M31))*16&amp;"px"</f>
+        <v>1m 5.44px</v>
+      </c>
+      <c r="J31" s="23">
+        <v>-0.45</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M31" s="23">
+        <v>1.79</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3459,41 +3517,42 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 9.24px</v>
+        <v>5m 11.32px</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 10.24px</v>
+        <v>5m 12.32px</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 15.32px</v>
+        <v>4m 1.40000000000001px</v>
       </c>
       <c r="H32" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 0.32px</v>
+        <v>4m 2.40000000000001px</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M32" s="6">
-        <v>1.7765</v>
+        <v>3m 4.6px</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="M32" s="23">
+        <v>2.6</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3506,37 +3565,37 @@
         <v>21</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.52px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.52px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.6px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H33" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.6px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
+        <v>0m 15.24px</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23">
         <v>0.1875</v>
       </c>
-      <c r="L33" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M33" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L33" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3549,37 +3608,37 @@
         <v>21</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 9.72px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 10.72px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2m 15.8px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+        <v>1m 15.424px</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23">
         <v>0.1875</v>
       </c>
-      <c r="L34" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M34" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L34" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M34" s="23">
+        <v>1.7765</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3588,41 +3647,42 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 6.22px</v>
-      </c>
-      <c r="F35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 7.22px</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 12.3px</v>
-      </c>
-      <c r="H35" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0m 13.3px</v>
+        <v>58</v>
+      </c>
+      <c r="E35" s="21" t="str">
+        <f>INT(SUM(J35:L35)+1.62)&amp;"m "&amp;((SUM(J35:L35)+1.62)-INT(SUM(J35:L35)+1.62))*16&amp;"px"</f>
+        <v>2m 8.12px</v>
+      </c>
+      <c r="F35" s="21" t="str">
+        <f>INT(SUM(J35:L35)+0.0625+1.62)&amp;"m "&amp;((SUM(J35:L35)+0.0625+1.62)-INT(SUM(J35:L35)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 9.12px</v>
+      </c>
+      <c r="G35" s="22" t="str">
+        <f>INT(SUM(J35:L35))&amp;"m "&amp;((SUM(J35:L35))-INT(SUM(J35:L35)))*16&amp;"px"</f>
+        <v>0m 14.2px</v>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f>INT(SUM(J35:L35)+0.0625)&amp;"m "&amp;((SUM(J35:L35)+0.0625)-INT(SUM(J35:L35)+0.0625))*16&amp;"px"</f>
+        <v>0m 15.2px</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 4.24px</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0.76500000000000001</v>
+        <f>INT(SUM(J35:K35)+M35)&amp;"m "&amp;((SUM(J35:K35)+M35)-INT(SUM(J35:K35)+M35))*16&amp;"px"</f>
+        <v>1m 4.44px</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L35" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M35" s="23">
+        <v>1.79</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3632,40 +3692,40 @@
         <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.24px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.24px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.32px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H36" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.32px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 4.424px</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1.7765</v>
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L36" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M36" s="23">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3675,39 +3735,39 @@
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 3.52px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 4.52px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 9.6px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H37" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 10.6px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.12px</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M37" s="6">
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L37" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M37" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N37" s="5"/>
@@ -3721,37 +3781,37 @@
         <v>16</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 14.72px</v>
+        <v>2m 6.22px</v>
       </c>
       <c r="F38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 15.72px</v>
+        <v>2m 7.22px</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3m 4.8px</v>
+        <v>0m 12.3px</v>
       </c>
       <c r="H38" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 5.8px</v>
+        <v>0m 13.3px</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.12px</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+        <v>1m 4.24px</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23">
         <v>0.5</v>
       </c>
-      <c r="L38" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M38" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L38" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3760,46 +3820,41 @@
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 4.22px</v>
+        <v>2m 14.24px</v>
       </c>
       <c r="F39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 5.22px</v>
+        <v>2m 15.24px</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 10.3px</v>
+        <v>1m 4.32px</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 11.3px</v>
+        <v>1m 5.32px</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 2.24px</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0.76500000000000001</v>
+        <v>2m 4.424px</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M39" s="23">
+        <v>1.7765</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3808,46 +3863,40 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 12.24px</v>
-      </c>
-      <c r="F40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 13.24px</v>
-      </c>
-      <c r="G40" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1m 2.32px</v>
-      </c>
-      <c r="H40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>1m 3.32px</v>
+        <v>58</v>
+      </c>
+      <c r="E40" s="21" t="str">
+        <f>INT(SUM(J40:L40)+1.62)&amp;"m "&amp;((SUM(J40:L40)+1.62)-INT(SUM(J40:L40)+1.62))*16&amp;"px"</f>
+        <v>2m 13.12px</v>
+      </c>
+      <c r="F40" s="21" t="str">
+        <f>INT(SUM(J40:L40)+0.0625+1.62)&amp;"m "&amp;((SUM(J40:L40)+0.0625+1.62)-INT(SUM(J40:L40)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 14.12px</v>
+      </c>
+      <c r="G40" s="22" t="str">
+        <f>INT(SUM(J40:L40))&amp;"m "&amp;((SUM(J40:L40))-INT(SUM(J40:L40)))*16&amp;"px"</f>
+        <v>1m 3.2px</v>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f>INT(SUM(J40:L40)+0.0625)&amp;"m "&amp;((SUM(J40:L40)+0.0625)-INT(SUM(J40:L40)+0.0625))*16&amp;"px"</f>
+        <v>1m 4.2px</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>2m 2.424px</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M40" s="6">
-        <v>1.7765</v>
+        <f>INT(SUM(J40:K40)+M40)&amp;"m "&amp;((SUM(J40:K40)+M40)-INT(SUM(J40:K40)+M40))*16&amp;"px"</f>
+        <v>1m 9.44px</v>
+      </c>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23">
+        <v>-0.2</v>
+      </c>
+      <c r="L40" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M40" s="23">
+        <v>1.79</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -3856,45 +3905,40 @@
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C41" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 1.52px</v>
+        <v>3m 3.52px</v>
       </c>
       <c r="F41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 2.52px</v>
+        <v>3m 4.52px</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 7.6px</v>
+        <v>1m 9.6px</v>
       </c>
       <c r="H41" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 8.6px</v>
+        <v>1m 10.6px</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L41" s="6">
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N41" s="5"/>
@@ -3904,45 +3948,40 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 12.72px</v>
+        <v>4m 14.72px</v>
       </c>
       <c r="F42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 13.72px</v>
+        <v>4m 15.72px</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3m 2.8px</v>
+        <v>3m 4.8px</v>
       </c>
       <c r="H42" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 3.8px</v>
+        <v>3m 5.8px</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L42" s="6">
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="23">
         <v>2.8</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N42" s="5"/>
@@ -3956,41 +3995,41 @@
         <v>17</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 9.22px</v>
+        <v>2m 4.22px</v>
       </c>
       <c r="F43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 10.22px</v>
+        <v>2m 5.22px</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 15.3px</v>
+        <v>0m 10.3px</v>
       </c>
       <c r="H43" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 0.300000000000001px</v>
+        <v>0m 11.3px</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 7.24px</v>
-      </c>
-      <c r="J43" s="6">
+        <v>1m 2.24px</v>
+      </c>
+      <c r="J43" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K43" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="6">
+      <c r="K43" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L43" s="23">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="23">
         <v>0.76500000000000001</v>
       </c>
       <c r="N43" s="5"/>
@@ -4004,41 +4043,41 @@
         <v>17</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 1.24px</v>
+        <v>2m 12.24px</v>
       </c>
       <c r="F44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 2.24px</v>
+        <v>2m 13.24px</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 7.32px</v>
+        <v>1m 2.32px</v>
       </c>
       <c r="H44" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 8.32px</v>
+        <v>1m 3.32px</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 7.424px</v>
-      </c>
-      <c r="J44" s="6">
+        <v>2m 2.424px</v>
+      </c>
+      <c r="J44" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K44" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="K44" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L44" s="23">
         <v>0.77</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="23">
         <v>1.7765</v>
       </c>
       <c r="N44" s="5"/>
@@ -4052,42 +4091,42 @@
         <v>17</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>3m 6.52px</v>
-      </c>
-      <c r="F45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3m 7.52px</v>
-      </c>
-      <c r="G45" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1m 12.6px</v>
-      </c>
-      <c r="H45" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>1m 13.6px</v>
+        <v>58</v>
+      </c>
+      <c r="E45" s="21" t="str">
+        <f>INT(SUM(J45:L45)+1.62)&amp;"m "&amp;((SUM(J45:L45)+1.62)-INT(SUM(J45:L45)+1.62))*16&amp;"px"</f>
+        <v>2m 11.12px</v>
+      </c>
+      <c r="F45" s="21" t="str">
+        <f>INT(SUM(J45:L45)+0.0625+1.62)&amp;"m "&amp;((SUM(J45:L45)+0.0625+1.62)-INT(SUM(J45:L45)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 12.12px</v>
+      </c>
+      <c r="G45" s="22" t="str">
+        <f>INT(SUM(J45:L45))&amp;"m "&amp;((SUM(J45:L45))-INT(SUM(J45:L45)))*16&amp;"px"</f>
+        <v>1m 1.2px</v>
+      </c>
+      <c r="H45" s="22" t="str">
+        <f>INT(SUM(J45:L45)+0.0625)&amp;"m "&amp;((SUM(J45:L45)+0.0625)-INT(SUM(J45:L45)+0.0625))*16&amp;"px"</f>
+        <v>1m 2.2px</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>2m 2.12px</v>
-      </c>
-      <c r="J45" s="6">
+        <f>INT(SUM(J45:K45)+M45)&amp;"m "&amp;((SUM(J45:K45)+M45)-INT(SUM(J45:K45)+M45))*16&amp;"px"</f>
+        <v>1m 7.44px</v>
+      </c>
+      <c r="J45" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K45" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M45" s="6">
-        <v>1.4450000000000001</v>
+      <c r="K45" s="23">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L45" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M45" s="23">
+        <v>1.79</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4100,58 +4139,346 @@
         <v>17</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5m 1.72px</v>
+        <v>3m 1.52px</v>
       </c>
       <c r="F46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5m 2.72px</v>
+        <v>3m 2.52px</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3m 7.8px</v>
+        <v>1m 7.6px</v>
       </c>
       <c r="H46" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 8.8px</v>
+        <v>1m 8.6px</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 2.12px</v>
-      </c>
-      <c r="J46" s="6">
+        <v>1m 13.12px</v>
+      </c>
+      <c r="J46" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K46" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="K46" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L46" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M46" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="7">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>4m 12.72px</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>4m 13.72px</v>
+      </c>
+      <c r="G47" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>3m 2.8px</v>
+      </c>
+      <c r="H47" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3m 3.8px</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1m 13.12px</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L47" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M47" s="23">
+        <v>1.4450000000000001</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2m 9.22px</v>
+      </c>
+      <c r="F48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 10.22px</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 15.3px</v>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1m 0.300000000000001px</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1m 7.24px</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3m 1.24px</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>3m 2.24px</v>
+      </c>
+      <c r="G49" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>1m 7.32px</v>
+      </c>
+      <c r="H49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1m 8.32px</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2m 7.424px</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K49" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M49" s="23">
+        <v>1.7765</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="21" t="str">
+        <f>INT(SUM(J50:L50)+1.62)&amp;"m "&amp;((SUM(J50:L50)+1.62)-INT(SUM(J50:L50)+1.62))*16&amp;"px"</f>
+        <v>3m 0.120000000000005px</v>
+      </c>
+      <c r="F50" s="21" t="str">
+        <f>INT(SUM(J50:L50)+0.0625+1.62)&amp;"m "&amp;((SUM(J50:L50)+0.0625+1.62)-INT(SUM(J50:L50)+0.0625+1.62))*16&amp;"px"</f>
+        <v>3m 1.12px</v>
+      </c>
+      <c r="G50" s="22" t="str">
+        <f>INT(SUM(J50:L50))&amp;"m "&amp;((SUM(J50:L50))-INT(SUM(J50:L50)))*16&amp;"px"</f>
+        <v>1m 6.2px</v>
+      </c>
+      <c r="H50" s="22" t="str">
+        <f>INT(SUM(J50:L50)+0.0625)&amp;"m "&amp;((SUM(J50:L50)+0.0625)-INT(SUM(J50:L50)+0.0625))*16&amp;"px"</f>
+        <v>1m 7.2px</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>INT(SUM(J50:K50)+M50)&amp;"m "&amp;((SUM(J50:K50)+M50)-INT(SUM(J50:K50)+M50))*16&amp;"px"</f>
+        <v>1m 12.44px</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K50" s="23">
+        <v>-0.2</v>
+      </c>
+      <c r="L50" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M50" s="23">
+        <v>1.79</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3m 6.52px</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>3m 7.52px</v>
+      </c>
+      <c r="G51" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>1m 12.6px</v>
+      </c>
+      <c r="H51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1m 13.6px</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K51" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" s="23">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>5m 1.72px</v>
+      </c>
+      <c r="F52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>5m 2.72px</v>
+      </c>
+      <c r="G52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>3m 7.8px</v>
+      </c>
+      <c r="H52" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3m 8.8px</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J52" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K52" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M52" s="23">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4160,14 +4487,14 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I46">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:I52">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4181,7 +4508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C2B50-FE41-4DD7-B1DD-5217FB61F131}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4291,10 +4618,10 @@
         <f t="shared" ref="I3:I46" si="4">SUM(J3:K3)+M3</f>
         <v>1.62</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
         <v>1.62</v>
       </c>
       <c r="N3" s="5"/>
@@ -4330,12 +4657,12 @@
         <f t="shared" si="4"/>
         <v>1.2075</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>1.62</v>
       </c>
       <c r="N4" s="5"/>
@@ -4372,12 +4699,12 @@
         <f t="shared" si="4"/>
         <v>1.2075</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
         <v>1.62</v>
       </c>
       <c r="N5" s="5"/>
@@ -4413,12 +4740,12 @@
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
         <v>1.62</v>
       </c>
       <c r="N6" s="5"/>
@@ -4457,14 +4784,14 @@
         <f t="shared" si="4"/>
         <v>1.395</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="23">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23">
         <v>1.62</v>
       </c>
       <c r="N7" s="5"/>
@@ -4503,14 +4830,14 @@
         <f t="shared" si="4"/>
         <v>1.7075</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="23">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
         <v>1.62</v>
       </c>
       <c r="N8" s="5"/>
@@ -4543,12 +4870,12 @@
         <f t="shared" si="4"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="23">
         <v>0.76500000000000001</v>
       </c>
       <c r="N9" s="5"/>
@@ -4581,12 +4908,12 @@
         <f t="shared" si="4"/>
         <v>1.425</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23">
         <v>0.51249999999999996</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="23">
         <v>1.425</v>
       </c>
       <c r="N10" s="5"/>
@@ -4619,12 +4946,12 @@
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23">
         <v>0.61250000000000004</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="23">
         <v>1.52</v>
       </c>
       <c r="N11" s="5"/>
@@ -4657,12 +4984,12 @@
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23">
         <v>0.71875</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="23">
         <v>1.52</v>
       </c>
       <c r="N12" s="5"/>
@@ -4695,12 +5022,12 @@
         <f t="shared" si="4"/>
         <v>1.7765</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23">
         <v>0.77</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="23">
         <v>1.7765</v>
       </c>
       <c r="N13" s="5"/>
@@ -4733,12 +5060,12 @@
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23">
         <v>0.84375</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="23">
         <v>1.52</v>
       </c>
       <c r="N14" s="5"/>
@@ -4771,12 +5098,12 @@
         <f t="shared" si="4"/>
         <v>1.4450000000000001</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N15" s="5"/>
@@ -4811,12 +5138,12 @@
         <f t="shared" si="4"/>
         <v>1.4450000000000001</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23">
         <v>2.8</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N16" s="5"/>
@@ -4851,12 +5178,12 @@
         <f t="shared" si="4"/>
         <v>1.0449999999999999</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
         <v>0.17</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="23">
         <v>1.0449999999999999</v>
       </c>
       <c r="N17" s="5"/>
@@ -4889,12 +5216,12 @@
         <f t="shared" si="4"/>
         <v>2.2749999999999999</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23">
         <v>1.4</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="23">
         <v>2.2749999999999999</v>
       </c>
       <c r="N18" s="5"/>
@@ -4907,35 +5234,35 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>5.0199999999999996</v>
+        <v>3.02</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>5.0824999999999996</v>
+        <v>3.0825</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="3"/>
-        <v>3.4624999999999999</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>2.6</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2.6</v>
+        <v>1.79</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1.79</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -4944,41 +5271,38 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>2.0762499999999999</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>2.1387499999999999</v>
+        <v>5.0824999999999996</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="2"/>
-        <v>0.45624999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="3"/>
-        <v>0.51875000000000004</v>
+        <v>3.4624999999999999</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="4"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="M20" s="23">
+        <v>2.6</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -4991,37 +5315,37 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>2.3200000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>2.3825000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="3"/>
-        <v>0.76249999999999996</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="4"/>
-        <v>1.6125</v>
-      </c>
-      <c r="J21" s="6">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J21" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1.425</v>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -5034,37 +5358,37 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>2.42</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>2.4824999999999999</v>
+        <v>2.3825000000000003</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="3"/>
-        <v>0.86250000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>1.7075</v>
-      </c>
-      <c r="J22" s="6">
+        <v>1.6125</v>
+      </c>
+      <c r="J22" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1.52</v>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1.425</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -5077,36 +5401,36 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>2.5262500000000001</v>
+        <v>2.42</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>2.5887500000000001</v>
+        <v>2.4824999999999999</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>0.90625</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="3"/>
-        <v>0.96875</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
         <v>1.7075</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>0.71875</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M23" s="23">
         <v>1.52</v>
       </c>
       <c r="N23" s="5"/>
@@ -5120,37 +5444,37 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>2.5775000000000001</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>2.5887500000000001</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>0.95750000000000002</v>
+        <v>0.90625</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>0.96875</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="4"/>
-        <v>1.964</v>
-      </c>
-      <c r="J24" s="6">
+        <v>1.7075</v>
+      </c>
+      <c r="J24" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1.7765</v>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1.52</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -5163,37 +5487,37 @@
         <v>17</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>2.6512500000000001</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>2.7137500000000001</v>
+        <v>2.64</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>1.03125</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="3"/>
-        <v>1.09375</v>
+        <v>1.02</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>1.7075</v>
-      </c>
-      <c r="J25" s="6">
+        <v>1.964</v>
+      </c>
+      <c r="J25" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
-        <v>0.84375</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1.52</v>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1.7765</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -5206,37 +5530,37 @@
         <v>17</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>2.9075000000000002</v>
+        <v>2.6512500000000001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>2.97</v>
+        <v>2.7137500000000001</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>1.2875000000000001</v>
+        <v>1.03125</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="3"/>
-        <v>1.35</v>
+        <v>1.09375</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J26" s="6">
+        <v>1.7075</v>
+      </c>
+      <c r="J26" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1.4450000000000001</v>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23">
+        <v>0.84375</v>
+      </c>
+      <c r="M26" s="23">
+        <v>1.52</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -5249,36 +5573,36 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>4.6074999999999999</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>4.67</v>
+        <v>2.97</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>2.9874999999999998</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>1.35</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
         <v>1.6325000000000001</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="K27" s="23"/>
+      <c r="L27" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M27" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N27" s="5"/>
@@ -5292,37 +5616,37 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>1.9775</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>2.04</v>
+        <v>4.67</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>0.35750000000000004</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="3"/>
-        <v>0.42000000000000004</v>
+        <v>3.05</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="4"/>
-        <v>1.2324999999999999</v>
-      </c>
-      <c r="J28" s="6">
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J28" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1.0449999999999999</v>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M28" s="23">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -5335,37 +5659,37 @@
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>3.2075</v>
+        <v>1.9775</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>3.27</v>
+        <v>2.04</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>1.5874999999999999</v>
+        <v>0.35750000000000004</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="3"/>
-        <v>1.65</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="4"/>
-        <v>2.4624999999999999</v>
-      </c>
-      <c r="J29" s="6">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="J29" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="M29" s="6">
-        <v>2.2749999999999999</v>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="M29" s="23">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -5377,39 +5701,38 @@
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>5.7075000000000005</v>
+        <v>3.2075</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>5.7700000000000005</v>
+        <v>3.27</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="2"/>
-        <v>4.0875000000000004</v>
+        <v>1.5874999999999999</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="3"/>
-        <v>4.1500000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="4"/>
-        <v>3.2875000000000001</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2.6</v>
+        <v>2.4624999999999999</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M30" s="23">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -5418,41 +5741,42 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>2.0762499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>2.1387499999999999</v>
+        <v>2.6325000000000003</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="2"/>
-        <v>0.45624999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="3"/>
-        <v>0.51875000000000004</v>
+        <v>1.0125</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="4"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0.76500000000000001</v>
+        <v>1.34</v>
+      </c>
+      <c r="J31" s="23">
+        <v>-0.45</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M31" s="23">
+        <v>1.79</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -5461,41 +5785,42 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>2.5775000000000001</v>
+        <v>5.7075000000000005</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>0.95750000000000002</v>
+        <v>4.0875000000000004</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="4"/>
-        <v>1.964</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M32" s="6">
-        <v>1.7765</v>
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="M32" s="23">
+        <v>2.6</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -5508,37 +5833,37 @@
         <v>21</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>2.9075000000000002</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>2.97</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>1.2875000000000001</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="3"/>
-        <v>1.35</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23">
         <v>0.1875</v>
       </c>
-      <c r="L33" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M33" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L33" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -5551,37 +5876,37 @@
         <v>21</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>4.6074999999999999</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>4.67</v>
+        <v>2.64</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>2.9874999999999998</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+        <v>1.964</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23">
         <v>0.1875</v>
       </c>
-      <c r="L34" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M34" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L34" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M34" s="23">
+        <v>1.7765</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -5590,41 +5915,42 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>2.3887499999999999</v>
+        <v>2.5075000000000003</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>2.4512499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="2"/>
-        <v>0.76875000000000004</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="3"/>
-        <v>0.83125000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="4"/>
-        <v>1.2650000000000001</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0.76500000000000001</v>
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L35" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M35" s="23">
+        <v>1.79</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -5634,40 +5960,40 @@
         <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>2.9525000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="2"/>
-        <v>1.27</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="3"/>
-        <v>1.3325</v>
+        <v>1.35</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="4"/>
-        <v>2.2765</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1.7765</v>
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L36" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M36" s="23">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -5677,39 +6003,39 @@
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>3.22</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>3.2825000000000002</v>
+        <v>4.67</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="3"/>
-        <v>1.6625000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="4"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M37" s="6">
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L37" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M37" s="23">
         <v>1.4450000000000001</v>
       </c>
       <c r="N37" s="5"/>
@@ -5723,174 +6049,158 @@
         <v>16</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>4.92</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>4.9824999999999999</v>
+        <v>2.4512499999999999</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="2"/>
-        <v>3.3</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="3"/>
-        <v>3.3624999999999998</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="4"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+        <v>1.2650000000000001</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23">
         <v>0.5</v>
       </c>
-      <c r="L38" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="M38" s="6">
-        <v>1.4450000000000001</v>
+      <c r="L38" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="0"/>
-        <v>2.2637499999999999</v>
+        <v>2.89</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>2.3262499999999999</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="2"/>
-        <v>0.64375000000000004</v>
+        <v>1.27</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="3"/>
-        <v>0.70625000000000004</v>
+        <v>1.3325</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="4"/>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0.76500000000000001</v>
+        <v>2.2765</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M39" s="23">
+        <v>1.7765</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
-        <v>2.7650000000000001</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>2.8275000000000001</v>
+        <v>2.8825000000000003</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="2"/>
-        <v>1.145</v>
+        <v>1.2</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="3"/>
-        <v>1.2075</v>
+        <v>1.2625</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="4"/>
-        <v>2.1515</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M40" s="6">
-        <v>1.7765</v>
+        <v>1.59</v>
+      </c>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23">
+        <v>-0.2</v>
+      </c>
+      <c r="L40" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M40" s="23">
+        <v>1.79</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C41" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="0"/>
-        <v>3.0950000000000002</v>
+        <v>3.22</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>3.1575000000000002</v>
+        <v>3.2825000000000002</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="2"/>
-        <v>1.4750000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="3"/>
-        <v>1.5375000000000001</v>
+        <v>1.6625000000000001</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="4"/>
-        <v>1.82</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L41" s="6">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="23">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -5898,45 +6208,40 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="0"/>
-        <v>4.7949999999999999</v>
+        <v>4.92</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>4.8574999999999999</v>
+        <v>4.9824999999999999</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="2"/>
-        <v>3.1749999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="3"/>
-        <v>3.2374999999999998</v>
+        <v>3.3624999999999998</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="4"/>
-        <v>1.82</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.1875</v>
-      </c>
-      <c r="L42" s="6">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="23">
         <v>2.8</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="23">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -5948,41 +6253,41 @@
         <v>17</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="0"/>
-        <v>2.5762499999999999</v>
+        <v>2.2637499999999999</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="1"/>
-        <v>2.6387499999999999</v>
+        <v>2.3262499999999999</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="2"/>
-        <v>0.95625000000000004</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="3"/>
-        <v>1.01875</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="4"/>
-        <v>1.4525000000000001</v>
-      </c>
-      <c r="J43" s="6">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="J43" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K43" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="6">
+      <c r="K43" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L43" s="23">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="23">
         <v>0.76500000000000001</v>
       </c>
     </row>
@@ -5994,41 +6299,41 @@
         <v>17</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>3.0775000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>2.8275000000000001</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="2"/>
-        <v>1.4575</v>
+        <v>1.145</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="3"/>
-        <v>1.52</v>
+        <v>1.2075</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="4"/>
-        <v>2.464</v>
-      </c>
-      <c r="J44" s="6">
+        <v>2.1515</v>
+      </c>
+      <c r="J44" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K44" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="K44" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L44" s="23">
         <v>0.77</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="23">
         <v>1.7765</v>
       </c>
     </row>
@@ -6040,42 +6345,42 @@
         <v>17</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="0"/>
-        <v>3.4075000000000002</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>3.47</v>
+        <v>2.7575000000000003</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="2"/>
-        <v>1.7875000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="3"/>
-        <v>1.85</v>
+        <v>1.1375</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="4"/>
-        <v>2.1325000000000003</v>
-      </c>
-      <c r="J45" s="6">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="J45" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K45" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M45" s="6">
-        <v>1.4450000000000001</v>
+      <c r="K45" s="23">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L45" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M45" s="23">
+        <v>1.79</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -6086,41 +6391,317 @@
         <v>17</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1575000000000002</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="4"/>
+        <v>1.82</v>
+      </c>
+      <c r="J46" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K46" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L46" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M46" s="23">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" ref="E47:E52" si="5">SUM(J47:L47)+1.62</f>
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" ref="F47:F52" si="6">SUM(J47:L47)+0.0625+1.62</f>
+        <v>4.8574999999999999</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" ref="G47:G52" si="7">SUM(J47:L47)</f>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" ref="H47:H52" si="8">SUM(J47:L47)+0.0625</f>
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" ref="I47:I52" si="9">SUM(J47:K47)+M47</f>
+        <v>1.82</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="L47" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="M47" s="23">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5762499999999999</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6387499999999999</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="7"/>
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="8"/>
+        <v>1.01875</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="9"/>
+        <v>1.4525000000000001</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="5"/>
+        <v>3.0775000000000001</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="6"/>
+        <v>3.14</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4575</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="8"/>
+        <v>1.52</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="9"/>
+        <v>2.464</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K49" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="M49" s="23">
+        <v>1.7765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="5"/>
+        <v>3.0075000000000003</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="6"/>
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="7"/>
+        <v>1.3875</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="8"/>
+        <v>1.45</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="9"/>
+        <v>1.7775000000000001</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K50" s="23">
+        <v>-0.2</v>
+      </c>
+      <c r="L50" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="M50" s="23">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4075000000000002</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="8"/>
+        <v>1.85</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="9"/>
+        <v>2.1325000000000003</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="K51" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" s="23">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="5">
-        <f t="shared" si="0"/>
+      <c r="E52" s="5">
+        <f t="shared" si="5"/>
         <v>5.1074999999999999</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" si="1"/>
+      <c r="F52" s="5">
+        <f t="shared" si="6"/>
         <v>5.17</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="2"/>
+      <c r="G52" s="5">
+        <f t="shared" si="7"/>
         <v>3.4874999999999998</v>
       </c>
-      <c r="H46" s="5">
-        <f t="shared" si="3"/>
+      <c r="H52" s="5">
+        <f t="shared" si="8"/>
         <v>3.55</v>
       </c>
-      <c r="I46" s="8">
-        <f t="shared" si="4"/>
+      <c r="I52" s="8">
+        <f t="shared" si="9"/>
         <v>2.1325000000000003</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J52" s="23">
         <v>0.1875</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K52" s="23">
         <v>0.5</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L52" s="23">
         <v>2.8</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M52" s="23">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -6131,14 +6712,14 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I46">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:I52">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,13 +8616,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9921,13 +10502,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9940,7 +10521,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024B830-7371-4AE1-9ABB-4F9074C93617}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10009,7 +10590,7 @@
         <v>-0.41249999999999998</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D18" si="0">C5*16</f>
+        <f t="shared" ref="D5:D19" si="0">C5*16</f>
         <v>-6.6</v>
       </c>
     </row>
@@ -10195,94 +10776,116 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8">
         <v>3.4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="20">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="D21" s="20">
+        <f>C21*16</f>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C22" s="20">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D20" s="8">
-        <f>C20*16</f>
+      <c r="D22" s="20">
+        <f>C22*16</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="8">
-        <f>C22*16</f>
-        <v>8</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="8">
-        <f>0.25-1/16</f>
-        <v>0.1875</v>
-      </c>
-      <c r="D24" s="8">
+        <v>58</v>
+      </c>
+      <c r="C24" s="20">
+        <v>-0.2</v>
+      </c>
+      <c r="D24" s="20">
         <f>C24*16</f>
-        <v>3</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="20">
+        <f>C25*16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="8">
-        <f>0.25-1/16</f>
-        <v>0.1875</v>
-      </c>
-      <c r="D25" s="8">
-        <f>C25*16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.6875</v>
-      </c>
-      <c r="D26" s="8">
-        <v>11</v>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="20">
+        <v>-0.45</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" ref="D27:D29" si="1">C27*16</f>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10290,14 +10893,64 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" ref="C28:C29" si="2">0.25-1/16</f>
+        <v>0.1875</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="D30" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C32" s="20">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D28" s="8">
-        <f>C28*16</f>
+      <c r="D32" s="20">
+        <f>C32*16</f>
         <v>3</v>
       </c>
     </row>

--- a/实体 entity/实体骑乘高度数据.xlsx
+++ b/实体 entity/实体骑乘高度数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\实体 entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289FE636-0D87-4309-8410-25156FDEDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD413C45-982F-4B55-A654-6C08A5521F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="65">
   <si>
     <t>最后五列用于excel的计算，根据使用的实体调整高度</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,14 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>骆驼站着</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">骆驼坐着 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>马</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,10 +201,6 @@
   </si>
   <si>
     <t>双炽足兽</t>
-  </si>
-  <si>
-    <t>骆驼坐着</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>船、竹筏</t>
@@ -294,6 +285,42 @@
   </si>
   <si>
     <t>僵尸猪灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅马、僵尸马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉螺、僵尸鹦鹉螺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼(坐着)、 骆驼尸壳(坐着)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼(站着)、 骆驼尸壳(站着)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼(坐着)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼(站着)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马、驴、骡、骷髅马、僵尸马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉螺、僵尸鹦鹉螺、骆驼、骆驼尸壳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,17 +502,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -498,282 +514,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8D6771BB-58B0-47F2-9249-E3DC5351C918}"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFBFBFBF"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1396,6 +1153,86 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
         <family val="3"/>
@@ -1414,6 +1251,86 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1453,6 +1370,86 @@
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFBFBFBF"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1693,128 +1690,128 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E68BA1FC-5873-4E2E-99DD-3D126C66F3BC}" name="表7_3" displayName="表7_3" ref="A2:M52" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
-  <autoFilter ref="A2:M52" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E68BA1FC-5873-4E2E-99DD-3D126C66F3BC}" name="表7_3" displayName="表7_3" ref="A2:M54" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A2:M54" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{28FA0ADE-FA24-4C69-8AC0-B8136613F3B9}" name="组合编号" dataDxfId="72"/>
-    <tableColumn id="15" xr3:uid="{39F2DF11-91FD-4588-80CC-35CC7D44B70F}" name="矿车" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{0F07B471-4667-4108-969E-BA2015CF52FF}" name="船/竹筏" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{97BF810A-53C7-451D-9919-6761B4340729}" name="生物" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{E65C589F-3C0F-42D2-B8A0-926C9E722354}" name="无轨视高" dataDxfId="68">
+    <tableColumn id="2" xr3:uid="{28FA0ADE-FA24-4C69-8AC0-B8136613F3B9}" name="组合编号" dataDxfId="69"/>
+    <tableColumn id="15" xr3:uid="{39F2DF11-91FD-4588-80CC-35CC7D44B70F}" name="矿车" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{0F07B471-4667-4108-969E-BA2015CF52FF}" name="船/竹筏" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{97BF810A-53C7-451D-9919-6761B4340729}" name="生物" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{E65C589F-3C0F-42D2-B8A0-926C9E722354}" name="无轨视高" dataDxfId="65">
       <calculatedColumnFormula>INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A6ABFFDB-354E-4C09-9E8E-EA8D1A01E7AE}" name="有轨视高" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{A6ABFFDB-354E-4C09-9E8E-EA8D1A01E7AE}" name="有轨视高" dataDxfId="64">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3BB918C4-E0AA-43D5-9296-02D16A459FCB}" name="无轨高度" dataDxfId="66">
+    <tableColumn id="6" xr3:uid="{3BB918C4-E0AA-43D5-9296-02D16A459FCB}" name="无轨高度" dataDxfId="63">
       <calculatedColumnFormula>INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FE577ECA-8793-41AD-891F-AF1FD4FC96C9}" name="有轨高度" dataDxfId="65">
+    <tableColumn id="7" xr3:uid="{FE577ECA-8793-41AD-891F-AF1FD4FC96C9}" name="有轨高度" dataDxfId="62">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A79C77AB-332C-4A15-ACFD-BB9B8E6B2E05}" name="生物无轨窒息高度" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{A79C77AB-332C-4A15-ACFD-BB9B8E6B2E05}" name="生物无轨窒息高度" dataDxfId="61">
       <calculatedColumnFormula>INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D2760891-ECED-418D-992A-272FD57402D5}" name="矿车2" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{85C84BFC-4C27-47F4-8C56-247443488509}" name="船/竹筏2" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{D713370E-119E-4321-B744-2A47B1781AB7}" name="生物2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{E24A8876-FD36-497F-B5EA-E360001E9E02}" name="生物视高" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{D2760891-ECED-418D-992A-272FD57402D5}" name="矿车2" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{85C84BFC-4C27-47F4-8C56-247443488509}" name="船/竹筏2" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{D713370E-119E-4321-B744-2A47B1781AB7}" name="生物2" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{E24A8876-FD36-497F-B5EA-E360001E9E02}" name="生物视高" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9667C568-8A61-48D5-8003-01B5130E543D}" name="表7" displayName="表7" ref="A2:M52" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A2:M52" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9667C568-8A61-48D5-8003-01B5130E543D}" name="表7" displayName="表7" ref="A2:M54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A2:M54" xr:uid="{ECBC2B67-FC40-458D-A11A-81B8166D56F6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1A5B9393-745A-40B5-99A3-4C560CC7B2F3}" name="组合编号" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{3B8A2C49-42F1-4867-BF42-2822CDF5E16D}" name="矿车" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{48622B21-7452-4541-82EE-988C88AE65A7}" name="船/竹筏" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3ABEA036-6A6C-45C5-AA84-DA2D9F697B3D}" name="生物" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{33D96CCA-ACD8-46A8-A267-E02365DAC666}" name="无轨视高" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{1A5B9393-745A-40B5-99A3-4C560CC7B2F3}" name="组合编号" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{3B8A2C49-42F1-4867-BF42-2822CDF5E16D}" name="矿车" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{48622B21-7452-4541-82EE-988C88AE65A7}" name="船/竹筏" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{3ABEA036-6A6C-45C5-AA84-DA2D9F697B3D}" name="生物" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{33D96CCA-ACD8-46A8-A267-E02365DAC666}" name="无轨视高" dataDxfId="50">
       <calculatedColumnFormula>SUM(J3:L3)+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{598FE69C-AF3A-46F1-AA80-7BF4B0C020CC}" name="有轨视高" dataDxfId="60">
+    <tableColumn id="9" xr3:uid="{598FE69C-AF3A-46F1-AA80-7BF4B0C020CC}" name="有轨视高" dataDxfId="49">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F66481C1-D9A2-4C5D-B8A5-F66D7C951622}" name="无轨高度" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{F66481C1-D9A2-4C5D-B8A5-F66D7C951622}" name="无轨高度" dataDxfId="48">
       <calculatedColumnFormula>SUM(J3:L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F4B5C6C8-A44A-4E9B-84C0-2F1A0C1E9F82}" name="有轨高度" dataDxfId="58">
+    <tableColumn id="7" xr3:uid="{F4B5C6C8-A44A-4E9B-84C0-2F1A0C1E9F82}" name="有轨高度" dataDxfId="47">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B429005B-3C2A-4B29-BC01-522C8E5715A5}" name="生物无轨窒息高度" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{B429005B-3C2A-4B29-BC01-522C8E5715A5}" name="生物无轨窒息高度" dataDxfId="46">
       <calculatedColumnFormula>SUM(J3:K3)+M3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{52A6878A-9E03-4079-BD2A-D65774A088C3}" name="矿车2" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{53922683-A52C-4BB1-8910-A8475D84622A}" name="船/竹筏2" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{A29EB1E0-DDBB-4484-A5E5-D5BB3182F6F2}" name="生物2" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{4547FA66-A0F5-4A59-A7D1-7C2E362EC1FF}" name="生物视高" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{52A6878A-9E03-4079-BD2A-D65774A088C3}" name="矿车2" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{53922683-A52C-4BB1-8910-A8475D84622A}" name="船/竹筏2" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{A29EB1E0-DDBB-4484-A5E5-D5BB3182F6F2}" name="生物2" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{4547FA66-A0F5-4A59-A7D1-7C2E362EC1FF}" name="生物视高" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7804400-5991-40F3-9F65-9262C6E8D518}" name="表7_24" displayName="表7_24" ref="A2:M44" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7804400-5991-40F3-9F65-9262C6E8D518}" name="表7_24" displayName="表7_24" ref="A2:M44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A2:M44" xr:uid="{27945CDA-254B-4AA6-84AD-AE71E61FA140}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{71E3AFDE-E1EF-48EB-A226-652C7D1369ED}" name="组合编号" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{2D9E2A5A-60D2-43EA-9A05-9F75861AA009}" name="矿车" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{760FA158-F887-4326-B47C-92E490F67D50}" name="船/竹筏" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{001C7352-6C93-456E-8F0C-A3A0F9ADF2B0}" name="生物" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{9EEC54D2-02E5-494F-B896-BEDED7E09D17}" name="无轨视高" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{71E3AFDE-E1EF-48EB-A226-652C7D1369ED}" name="组合编号" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{2D9E2A5A-60D2-43EA-9A05-9F75861AA009}" name="矿车" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{760FA158-F887-4326-B47C-92E490F67D50}" name="船/竹筏" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{001C7352-6C93-456E-8F0C-A3A0F9ADF2B0}" name="生物" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{9EEC54D2-02E5-494F-B896-BEDED7E09D17}" name="无轨视高" dataDxfId="35">
       <calculatedColumnFormula>INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AE11D3FC-BAAE-46BC-846B-D78E065D710A}" name="有轨视高" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{AE11D3FC-BAAE-46BC-846B-D78E065D710A}" name="有轨视高" dataDxfId="34">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{049640C2-6E76-4794-8267-3C79E3B9FB9E}" name="无轨高度" dataDxfId="48">
+    <tableColumn id="6" xr3:uid="{049640C2-6E76-4794-8267-3C79E3B9FB9E}" name="无轨高度" dataDxfId="33">
       <calculatedColumnFormula>INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{57B1C658-DCA8-4E48-BF5C-F752585B483F}" name="有轨高度" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{57B1C658-DCA8-4E48-BF5C-F752585B483F}" name="有轨高度" dataDxfId="32">
       <calculatedColumnFormula>INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{911BBDC5-04F5-4304-81DC-D358149928A3}" name="生物无轨窒息高度" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{911BBDC5-04F5-4304-81DC-D358149928A3}" name="生物无轨窒息高度" dataDxfId="31">
       <calculatedColumnFormula>INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6272152D-6FB1-471F-813E-31616DD66D07}" name="矿车2" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{1E8474CC-D3FA-458D-A233-D3147C29E74F}" name="船/竹筏2" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{BE69942E-4AB4-4CDE-B3FA-79058FCD3C64}" name="生物2" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{6B2C6DD5-6298-491E-84EF-95C5DE2AA271}" name="生物视高" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{6272152D-6FB1-471F-813E-31616DD66D07}" name="矿车2" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{1E8474CC-D3FA-458D-A233-D3147C29E74F}" name="船/竹筏2" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{BE69942E-4AB4-4CDE-B3FA-79058FCD3C64}" name="生物2" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{6B2C6DD5-6298-491E-84EF-95C5DE2AA271}" name="生物视高" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8553EB68-81AD-4D84-8F6D-209C73F22DFF}" name="表7_2" displayName="表7_2" ref="A2:M44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8553EB68-81AD-4D84-8F6D-209C73F22DFF}" name="表7_2" displayName="表7_2" ref="A2:M44" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A2:M44" xr:uid="{27945CDA-254B-4AA6-84AD-AE71E61FA140}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{E3252128-2842-475D-836E-19597AAACB23}" name="组合编号" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{1A256CD6-F969-4F8A-BF08-782638A053C7}" name="矿车" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{139D25BD-5769-4E1F-A9B3-54F4E782916C}" name="船/竹筏" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{590934DE-6D63-4E32-A2BD-E6D9EEFB943B}" name="生物" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{4205D7C0-92A8-4837-939F-E2DA06176A19}" name="无轨视高" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{E3252128-2842-475D-836E-19597AAACB23}" name="组合编号" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{1A256CD6-F969-4F8A-BF08-782638A053C7}" name="矿车" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{139D25BD-5769-4E1F-A9B3-54F4E782916C}" name="船/竹筏" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{590934DE-6D63-4E32-A2BD-E6D9EEFB943B}" name="生物" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{4205D7C0-92A8-4837-939F-E2DA06176A19}" name="无轨视高" dataDxfId="20">
       <calculatedColumnFormula>SUM(J3:L3)+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{67B3BB23-165B-4512-8ECD-5E32DF8E967C}" name="有轨视高" dataDxfId="34">
+    <tableColumn id="9" xr3:uid="{67B3BB23-165B-4512-8ECD-5E32DF8E967C}" name="有轨视高" dataDxfId="19">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625+1.62</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1854081-3CCD-47A4-8AC7-A6D4D09865AF}" name="无轨高度" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{C1854081-3CCD-47A4-8AC7-A6D4D09865AF}" name="无轨高度" dataDxfId="18">
       <calculatedColumnFormula>SUM(J3:L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C13933C2-8933-4303-A309-B7187722B680}" name="有轨高度" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{C13933C2-8933-4303-A309-B7187722B680}" name="有轨高度" dataDxfId="17">
       <calculatedColumnFormula>SUM(J3:L3)+0.0625</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1FEBA74-5381-4FEA-B4CA-A6B60B7AF7D5}" name="生物无轨窒息高度" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{A1FEBA74-5381-4FEA-B4CA-A6B60B7AF7D5}" name="生物无轨窒息高度" dataDxfId="16">
       <calculatedColumnFormula>SUM(J3:K3)+M3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1664F24A-A49A-43FD-84D6-EA805F9ED691}" name="矿车2" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{2AEE38F2-0B0B-4C64-923E-656338A16C44}" name="船/竹筏2" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{44162916-A597-48D8-ABD1-2FEC989945C2}" name="生物2" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{09CE5323-8E54-4DBC-AA57-EEF2127DE728}" name="生物视高" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{1664F24A-A49A-43FD-84D6-EA805F9ED691}" name="矿车2" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{2AEE38F2-0B0B-4C64-923E-656338A16C44}" name="船/竹筏2" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{44162916-A597-48D8-ABD1-2FEC989945C2}" name="生物2" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{09CE5323-8E54-4DBC-AA57-EEF2127DE728}" name="生物视高" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2100,103 +2097,103 @@
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="C9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -2240,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26207E-1334-4633-A049-242B47862D3D}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2259,40 +2256,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>14</v>
@@ -2310,16 +2307,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2328,32 +2325,32 @@
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E52" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E3:E54" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F52" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F3:F54" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 10.92px</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G52" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
+        <f t="shared" ref="G3:G54" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
         <v>0m 0px</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:H52" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H3:H54" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
         <v>0m 1px</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I52" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
+        <f t="shared" ref="I3:I54" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18">
         <v>1.62</v>
       </c>
       <c r="N3" s="5"/>
@@ -2367,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2389,12 +2386,12 @@
         <f t="shared" si="4"/>
         <v>1m 3.32px</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18">
         <v>1.62</v>
       </c>
       <c r="N4" s="5"/>
@@ -2409,7 +2406,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2431,12 +2428,12 @@
         <f t="shared" si="4"/>
         <v>1m 3.32px</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
         <v>1.62</v>
       </c>
       <c r="N5" s="5"/>
@@ -2450,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2472,12 +2469,12 @@
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18">
         <v>1.62</v>
       </c>
       <c r="N6" s="5"/>
@@ -2494,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2516,14 +2513,14 @@
         <f t="shared" si="4"/>
         <v>1m 6.32px</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18">
         <v>1.62</v>
       </c>
       <c r="N7" s="5"/>
@@ -2540,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2562,14 +2559,14 @@
         <f t="shared" si="4"/>
         <v>1m 11.32px</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18">
         <v>1.62</v>
       </c>
       <c r="N8" s="5"/>
@@ -2602,12 +2599,12 @@
         <f t="shared" si="4"/>
         <v>0m 12.24px</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="18">
         <v>0.76500000000000001</v>
       </c>
       <c r="N9" s="5"/>
@@ -2618,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2640,12 +2637,12 @@
         <f t="shared" si="4"/>
         <v>1m 6.8px</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <v>0.51249999999999996</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="18">
         <v>1.425</v>
       </c>
       <c r="N10" s="5"/>
@@ -2656,35 +2653,35 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 3.72px</v>
+        <f>INT(SUM(J11:L11)+1.62)&amp;"m "&amp;((SUM(J11:L11)+1.62)-INT(SUM(J11:L11)+1.62))*16&amp;"px"</f>
+        <v>2m 2.52px</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 4.72px</v>
+        <f>INT(SUM(J11:L11)+0.0625+1.62)&amp;"m "&amp;((SUM(J11:L11)+0.0625+1.62)-INT(SUM(J11:L11)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 3.52px</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 9.8px</v>
+        <f>INT(SUM(J11:L11))&amp;"m "&amp;((SUM(J11:L11))-INT(SUM(J11:L11)))*16&amp;"px"</f>
+        <v>0m 8.6px</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0m 10.8px</v>
+        <f>INT(SUM(J11:L11)+0.0625)&amp;"m "&amp;((SUM(J11:L11)+0.0625)-INT(SUM(J11:L11)+0.0625))*16&amp;"px"</f>
+        <v>0m 9.6px</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 8.32px</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M11" s="23">
-        <v>1.52</v>
+        <f>INT(SUM(J11:K11)+M11)&amp;"m "&amp;((SUM(J11:K11)+M11)-INT(SUM(J11:K11)+M11))*16&amp;"px"</f>
+        <v>0m 4.4016px</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0.27510000000000001</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2694,34 +2691,34 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 5.42px</v>
+        <v>2m 3.72px</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 6.42px</v>
+        <v>2m 4.72px</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 11.5px</v>
+        <v>0m 9.8px</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 12.5px</v>
+        <v>0m 10.8px</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1m 8.32px</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M12" s="18">
         <v>1.52</v>
       </c>
       <c r="N12" s="5"/>
@@ -2732,35 +2729,35 @@
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 6.24px</v>
+        <v>2m 5.42px</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 7.24px</v>
+        <v>2m 6.42px</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 12.32px</v>
+        <v>0m 11.5px</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 13.32px</v>
+        <v>0m 12.5px</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 12.424px</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M13" s="23">
-        <v>1.7765</v>
+        <v>1m 8.32px</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1.52</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2770,35 +2767,35 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 7.42px</v>
+        <v>2m 6.24px</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 8.42px</v>
+        <v>2m 7.24px</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 13.5px</v>
+        <v>0m 12.32px</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 14.5px</v>
+        <v>0m 13.32px</v>
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 8.32px</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23">
-        <v>0.84375</v>
-      </c>
-      <c r="M14" s="23">
-        <v>1.52</v>
+        <v>1m 12.424px</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2808,35 +2805,35 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 11.52px</v>
+        <v>2m 7.42px</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 12.52px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 1.6px</v>
+        <v>0m 13.5px</v>
       </c>
       <c r="H15" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 2.6px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 7.12px</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M15" s="23">
-        <v>1.4450000000000001</v>
+        <v>1m 8.32px</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
+        <v>0.84375</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1.52</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2845,37 +2842,35 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 6.72px</v>
+        <v>2m 11.52px</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 7.72px</v>
+        <v>2m 12.52px</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2m 12.8px</v>
+        <v>1m 1.6px</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>2m 13.8px</v>
+        <v>1m 2.6px</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1m 7.12px</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="18">
         <v>1.4450000000000001</v>
       </c>
       <c r="N16" s="5"/>
@@ -2888,35 +2883,35 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1m 12.64px</v>
+        <v>4m 6.72px</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>1m 13.64px</v>
+        <v>4m 7.72px</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 2.72px</v>
+        <v>2m 12.8px</v>
       </c>
       <c r="H17" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 3.72px</v>
+        <v>2m 13.8px</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 0.719999999999999px</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="M17" s="23">
-        <v>1.0449999999999999</v>
+        <v>1m 7.12px</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2925,36 +2920,38 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 0.32px</v>
+        <v>1m 12.64px</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 1.32px</v>
+        <v>1m 13.64px</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 6.4px</v>
+        <v>0m 2.72px</v>
       </c>
       <c r="H18" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 7.4px</v>
+        <v>0m 3.72px</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 4.4px</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M18" s="23">
-        <v>2.2749999999999999</v>
+        <v>1m 0.719999999999999px</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -2963,38 +2960,36 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="21" t="str">
-        <f>INT(SUM(J19:L19)+1.62)&amp;"m "&amp;((SUM(J19:L19)+1.62)-INT(SUM(J19:L19)+1.62))*16&amp;"px"</f>
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>3m 0.32px</v>
       </c>
-      <c r="F19" s="21" t="str">
-        <f>INT(SUM(J19:L19)+0.0625+1.62)&amp;"m "&amp;((SUM(J19:L19)+0.0625+1.62)-INT(SUM(J19:L19)+0.0625+1.62))*16&amp;"px"</f>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>3m 1.32px</v>
       </c>
-      <c r="G19" s="22" t="str">
-        <f>INT(SUM(J19:L19))&amp;"m "&amp;((SUM(J19:L19))-INT(SUM(J19:L19)))*16&amp;"px"</f>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>1m 6.4px</v>
       </c>
-      <c r="H19" s="22" t="str">
-        <f>INT(SUM(J19:L19)+0.0625)&amp;"m "&amp;((SUM(J19:L19)+0.0625)-INT(SUM(J19:L19)+0.0625))*16&amp;"px"</f>
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>1m 7.4px</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>INT(SUM(J19:K19)+M19)&amp;"m "&amp;((SUM(J19:K19)+M19)-INT(SUM(J19:K19)+M19))*16&amp;"px"</f>
-        <v>1m 12.64px</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23">
+        <f t="shared" si="4"/>
+        <v>2m 4.4px</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18">
         <v>1.4</v>
       </c>
-      <c r="M19" s="23">
-        <v>1.79</v>
+      <c r="M19" s="18">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3006,35 +3001,35 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>5m 0.319999999999993px</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5m 1.31999999999999px</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3m 6.4px</v>
-      </c>
-      <c r="H20" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 7.4px</v>
+        <v>55</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>INT(SUM(J20:L20)+1.62)&amp;"m "&amp;((SUM(J20:L20)+1.62)-INT(SUM(J20:L20)+1.62))*16&amp;"px"</f>
+        <v>3m 0.32px</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f>INT(SUM(J20:L20)+0.0625+1.62)&amp;"m "&amp;((SUM(J20:L20)+0.0625+1.62)-INT(SUM(J20:L20)+0.0625+1.62))*16&amp;"px"</f>
+        <v>3m 1.32px</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f>INT(SUM(J20:L20))&amp;"m "&amp;((SUM(J20:L20))-INT(SUM(J20:L20)))*16&amp;"px"</f>
+        <v>1m 6.4px</v>
+      </c>
+      <c r="H20" s="17" t="str">
+        <f>INT(SUM(J20:L20)+0.0625)&amp;"m "&amp;((SUM(J20:L20)+0.0625)-INT(SUM(J20:L20)+0.0625))*16&amp;"px"</f>
+        <v>1m 7.4px</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>2m 9.6px</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="M20" s="23">
-        <v>2.6</v>
+        <f>INT(SUM(J20:K20)+M20)&amp;"m "&amp;((SUM(J20:K20)+M20)-INT(SUM(J20:K20)+M20))*16&amp;"px"</f>
+        <v>1m 12.64px</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1.79</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3043,41 +3038,38 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 1.22px</v>
+        <v>5m 0.319999999999993px</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 2.22px</v>
+        <v>5m 1.31999999999999px</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 7.3px</v>
+        <v>3m 6.4px</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 8.3px</v>
+        <v>3m 7.4px</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M21" s="23">
-        <v>0.76500000000000001</v>
+        <v>2m 9.6px</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="M21" s="18">
+        <v>2.6</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3090,37 +3082,37 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 5.12px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 6.12px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 11.2px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 12.2px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 9.8px</v>
-      </c>
-      <c r="J22" s="23">
+        <v>0m 15.24px</v>
+      </c>
+      <c r="J22" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M22" s="23">
-        <v>1.425</v>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3133,37 +3125,37 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 6.72px</v>
+        <v>2m 5.12px</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 7.72px</v>
+        <v>2m 6.12px</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 12.8px</v>
+        <v>0m 11.2px</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 13.8px</v>
+        <v>0m 12.2px</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 11.32px</v>
-      </c>
-      <c r="J23" s="23">
+        <v>1m 9.8px</v>
+      </c>
+      <c r="J23" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M23" s="23">
-        <v>1.52</v>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1.425</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -3176,37 +3168,37 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 8.42px</v>
+        <f t="shared" ref="E24:E25" si="5">INT(SUM(J24:L24)+1.62)&amp;"m "&amp;((SUM(J24:L24)+1.62)-INT(SUM(J24:L24)+1.62))*16&amp;"px"</f>
+        <v>2m 5.52px</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 9.42px</v>
+        <f t="shared" ref="F24:F25" si="6">INT(SUM(J24:L24)+0.0625+1.62)&amp;"m "&amp;((SUM(J24:L24)+0.0625+1.62)-INT(SUM(J24:L24)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 6.52px</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 14.5px</v>
+        <f t="shared" ref="G24:G25" si="7">INT(SUM(J24:L24))&amp;"m "&amp;((SUM(J24:L24))-INT(SUM(J24:L24)))*16&amp;"px"</f>
+        <v>0m 11.6px</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0m 15.5px</v>
+        <f t="shared" ref="H24:H25" si="8">INT(SUM(J24:L24)+0.0625)&amp;"m "&amp;((SUM(J24:L24)+0.0625)-INT(SUM(J24:L24)+0.0625))*16&amp;"px"</f>
+        <v>0m 12.6px</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 11.32px</v>
-      </c>
-      <c r="J24" s="23">
+        <f t="shared" ref="I24:I25" si="9">INT(SUM(J24:K24)+M24)&amp;"m "&amp;((SUM(J24:K24)+M24)-INT(SUM(J24:K24)+M24))*16&amp;"px"</f>
+        <v>0m 7.4016px</v>
+      </c>
+      <c r="J24" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="M24" s="23">
-        <v>1.52</v>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0.27510000000000001</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3219,37 +3211,37 @@
         <v>17</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 9.24px</v>
+        <f t="shared" si="5"/>
+        <v>2m 6.72px</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 10.24px</v>
+        <f t="shared" si="6"/>
+        <v>2m 7.72px</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 15.32px</v>
+        <f t="shared" si="7"/>
+        <v>0m 12.8px</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>1m 0.32px</v>
+        <f t="shared" si="8"/>
+        <v>0m 13.8px</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J25" s="23">
+        <f t="shared" si="9"/>
+        <v>1m 11.32px</v>
+      </c>
+      <c r="J25" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M25" s="23">
-        <v>1.7765</v>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1.52</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -3262,36 +3254,36 @@
         <v>17</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 10.42px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 11.42px</v>
+        <v>2m 9.42px</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 0.5px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 1.5px</v>
+        <v>0m 15.5px</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="4"/>
         <v>1m 11.32px</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23">
-        <v>0.84375</v>
-      </c>
-      <c r="M26" s="23">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="M26" s="18">
         <v>1.52</v>
       </c>
       <c r="N26" s="5"/>
@@ -3305,37 +3297,37 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.52px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.52px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.6px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.6px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J27" s="23">
+        <v>1m 15.424px</v>
+      </c>
+      <c r="J27" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M27" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -3348,37 +3340,37 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>4m 9.72px</v>
+        <v>2m 10.42px</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>4m 10.72px</v>
+        <v>2m 11.42px</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2m 15.8px</v>
+        <v>1m 0.5px</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 1.5px</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J28" s="23">
+        <v>1m 11.32px</v>
+      </c>
+      <c r="J28" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M28" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
+        <v>0.84375</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1.52</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -3391,37 +3383,37 @@
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1m 15.64px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 0.640000000000001px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 5.72px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 6.72px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 3.72px</v>
-      </c>
-      <c r="J29" s="23">
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J29" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="M29" s="23">
-        <v>1.0449999999999999</v>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3434,37 +3426,37 @@
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 3.32px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 4.32px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 9.4px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H30" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 10.4px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 7.4px</v>
-      </c>
-      <c r="J30" s="23">
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J30" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M30" s="23">
-        <v>2.2749999999999999</v>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -3476,39 +3468,38 @@
       <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="21" t="str">
-        <f>INT(SUM(J31:L31)+1.62)&amp;"m "&amp;((SUM(J31:L31)+1.62)-INT(SUM(J31:L31)+1.62))*16&amp;"px"</f>
-        <v>2m 9.12px</v>
-      </c>
-      <c r="F31" s="21" t="str">
-        <f>INT(SUM(J31:L31)+0.0625+1.62)&amp;"m "&amp;((SUM(J31:L31)+0.0625+1.62)-INT(SUM(J31:L31)+0.0625+1.62))*16&amp;"px"</f>
-        <v>2m 10.12px</v>
-      </c>
-      <c r="G31" s="22" t="str">
-        <f>INT(SUM(J31:L31))&amp;"m "&amp;((SUM(J31:L31))-INT(SUM(J31:L31)))*16&amp;"px"</f>
-        <v>0m 15.2px</v>
-      </c>
-      <c r="H31" s="22" t="str">
-        <f>INT(SUM(J31:L31)+0.0625)&amp;"m "&amp;((SUM(J31:L31)+0.0625)-INT(SUM(J31:L31)+0.0625))*16&amp;"px"</f>
-        <v>1m 0.199999999999999px</v>
+        <v>59</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1m 15.64px</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 0.640000000000001px</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 5.72px</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0m 6.72px</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f>INT(SUM(J31:K31)+M31)&amp;"m "&amp;((SUM(J31:K31)+M31)-INT(SUM(J31:K31)+M31))*16&amp;"px"</f>
-        <v>1m 5.44px</v>
-      </c>
-      <c r="J31" s="23">
-        <v>-0.45</v>
-      </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M31" s="23">
-        <v>1.79</v>
+        <f t="shared" si="4"/>
+        <v>1m 3.72px</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3520,39 +3511,38 @@
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5m 11.32px</v>
+        <v>3m 3.32px</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5m 12.32px</v>
+        <v>3m 4.32px</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>4m 1.40000000000001px</v>
+        <v>1m 9.4px</v>
       </c>
       <c r="H32" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>4m 2.40000000000001px</v>
+        <v>1m 10.4px</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>3m 4.6px</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0.6875</v>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="M32" s="23">
-        <v>2.6</v>
+        <v>2m 7.4px</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M32" s="18">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3561,41 +3551,42 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2m 1.22px</v>
-      </c>
-      <c r="F33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2m 2.22px</v>
-      </c>
-      <c r="G33" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>0m 7.3px</v>
-      </c>
-      <c r="H33" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0m 8.3px</v>
+        <v>55</v>
+      </c>
+      <c r="E33" s="16" t="str">
+        <f>INT(SUM(J33:L33)+1.62)&amp;"m "&amp;((SUM(J33:L33)+1.62)-INT(SUM(J33:L33)+1.62))*16&amp;"px"</f>
+        <v>2m 9.12px</v>
+      </c>
+      <c r="F33" s="16" t="str">
+        <f>INT(SUM(J33:L33)+0.0625+1.62)&amp;"m "&amp;((SUM(J33:L33)+0.0625+1.62)-INT(SUM(J33:L33)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 10.12px</v>
+      </c>
+      <c r="G33" s="17" t="str">
+        <f>INT(SUM(J33:L33))&amp;"m "&amp;((SUM(J33:L33))-INT(SUM(J33:L33)))*16&amp;"px"</f>
+        <v>0m 15.2px</v>
+      </c>
+      <c r="H33" s="17" t="str">
+        <f>INT(SUM(J33:L33)+0.0625)&amp;"m "&amp;((SUM(J33:L33)+0.0625)-INT(SUM(J33:L33)+0.0625))*16&amp;"px"</f>
+        <v>1m 0.199999999999999px</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L33" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M33" s="23">
-        <v>0.76500000000000001</v>
+        <f>INT(SUM(J33:K33)+M33)&amp;"m "&amp;((SUM(J33:K33)+M33)-INT(SUM(J33:K33)+M33))*16&amp;"px"</f>
+        <v>1m 5.44px</v>
+      </c>
+      <c r="J33" s="18">
+        <v>-0.45</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1.79</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3604,41 +3595,42 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 9.24px</v>
+        <v>5m 11.32px</v>
       </c>
       <c r="F34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 10.24px</v>
+        <v>5m 12.32px</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 15.32px</v>
+        <v>4m 1.40000000000001px</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 0.32px</v>
+        <v>4m 2.40000000000001px</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L34" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M34" s="23">
-        <v>1.7765</v>
+        <v>3m 4.6px</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="M34" s="18">
+        <v>2.6</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3647,42 +3639,41 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="21" t="str">
-        <f>INT(SUM(J35:L35)+1.62)&amp;"m "&amp;((SUM(J35:L35)+1.62)-INT(SUM(J35:L35)+1.62))*16&amp;"px"</f>
-        <v>2m 8.12px</v>
-      </c>
-      <c r="F35" s="21" t="str">
-        <f>INT(SUM(J35:L35)+0.0625+1.62)&amp;"m "&amp;((SUM(J35:L35)+0.0625+1.62)-INT(SUM(J35:L35)+0.0625+1.62))*16&amp;"px"</f>
-        <v>2m 9.12px</v>
-      </c>
-      <c r="G35" s="22" t="str">
-        <f>INT(SUM(J35:L35))&amp;"m "&amp;((SUM(J35:L35))-INT(SUM(J35:L35)))*16&amp;"px"</f>
-        <v>0m 14.2px</v>
-      </c>
-      <c r="H35" s="22" t="str">
-        <f>INT(SUM(J35:L35)+0.0625)&amp;"m "&amp;((SUM(J35:L35)+0.0625)-INT(SUM(J35:L35)+0.0625))*16&amp;"px"</f>
-        <v>0m 15.2px</v>
+        <v>20</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2m 1.22px</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 2.22px</v>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 7.3px</v>
+      </c>
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0m 8.3px</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f>INT(SUM(J35:K35)+M35)&amp;"m "&amp;((SUM(J35:K35)+M35)-INT(SUM(J35:K35)+M35))*16&amp;"px"</f>
-        <v>1m 4.44px</v>
-      </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="L35" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M35" s="23">
-        <v>1.79</v>
+        <f t="shared" si="4"/>
+        <v>0m 15.24px</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3695,37 +3686,37 @@
         <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.52px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.52px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.6px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H36" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.6px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23">
+        <v>1m 15.424px</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18">
         <v>0.1875</v>
       </c>
-      <c r="L36" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M36" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L36" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3734,41 +3725,42 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>4m 9.72px</v>
-      </c>
-      <c r="F37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4m 10.72px</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2m 15.8px</v>
-      </c>
-      <c r="H37" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 0.799999999999997px</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="16" t="str">
+        <f>INT(SUM(J37:L37)+1.62)&amp;"m "&amp;((SUM(J37:L37)+1.62)-INT(SUM(J37:L37)+1.62))*16&amp;"px"</f>
+        <v>2m 8.12px</v>
+      </c>
+      <c r="F37" s="16" t="str">
+        <f>INT(SUM(J37:L37)+0.0625+1.62)&amp;"m "&amp;((SUM(J37:L37)+0.0625+1.62)-INT(SUM(J37:L37)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 9.12px</v>
+      </c>
+      <c r="G37" s="17" t="str">
+        <f>INT(SUM(J37:L37))&amp;"m "&amp;((SUM(J37:L37))-INT(SUM(J37:L37)))*16&amp;"px"</f>
+        <v>0m 14.2px</v>
+      </c>
+      <c r="H37" s="17" t="str">
+        <f>INT(SUM(J37:L37)+0.0625)&amp;"m "&amp;((SUM(J37:L37)+0.0625)-INT(SUM(J37:L37)+0.0625))*16&amp;"px"</f>
+        <v>0m 15.2px</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 10.12px</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L37" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M37" s="23">
-        <v>1.4450000000000001</v>
+        <f>INT(SUM(J37:K37)+M37)&amp;"m "&amp;((SUM(J37:K37)+M37)-INT(SUM(J37:K37)+M37))*16&amp;"px"</f>
+        <v>1m 4.44px</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1.79</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -3778,40 +3770,40 @@
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 6.22px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 7.22px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 12.3px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H38" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 13.3px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 4.24px</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M38" s="23">
-        <v>0.76500000000000001</v>
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3821,40 +3813,40 @@
         <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 14.24px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 15.24px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 4.32px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 5.32px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 4.424px</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M39" s="23">
-        <v>1.7765</v>
+        <v>1m 10.12px</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L39" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3863,40 +3855,41 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="21" t="str">
-        <f>INT(SUM(J40:L40)+1.62)&amp;"m "&amp;((SUM(J40:L40)+1.62)-INT(SUM(J40:L40)+1.62))*16&amp;"px"</f>
-        <v>2m 13.12px</v>
-      </c>
-      <c r="F40" s="21" t="str">
-        <f>INT(SUM(J40:L40)+0.0625+1.62)&amp;"m "&amp;((SUM(J40:L40)+0.0625+1.62)-INT(SUM(J40:L40)+0.0625+1.62))*16&amp;"px"</f>
-        <v>2m 14.12px</v>
-      </c>
-      <c r="G40" s="22" t="str">
-        <f>INT(SUM(J40:L40))&amp;"m "&amp;((SUM(J40:L40))-INT(SUM(J40:L40)))*16&amp;"px"</f>
-        <v>1m 3.2px</v>
-      </c>
-      <c r="H40" s="22" t="str">
-        <f>INT(SUM(J40:L40)+0.0625)&amp;"m "&amp;((SUM(J40:L40)+0.0625)-INT(SUM(J40:L40)+0.0625))*16&amp;"px"</f>
-        <v>1m 4.2px</v>
+        <v>20</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2m 6.22px</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 7.22px</v>
+      </c>
+      <c r="G40" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 12.3px</v>
+      </c>
+      <c r="H40" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0m 13.3px</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>INT(SUM(J40:K40)+M40)&amp;"m "&amp;((SUM(J40:K40)+M40)-INT(SUM(J40:K40)+M40))*16&amp;"px"</f>
-        <v>1m 9.44px</v>
-      </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="L40" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M40" s="23">
-        <v>1.79</v>
+        <f t="shared" si="4"/>
+        <v>1m 4.24px</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -3909,37 +3902,37 @@
         <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 3.52px</v>
+        <v>2m 14.24px</v>
       </c>
       <c r="F41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 4.52px</v>
+        <v>2m 15.24px</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 9.6px</v>
+        <v>1m 4.32px</v>
       </c>
       <c r="H41" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 10.6px</v>
+        <v>1m 5.32px</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 15.12px</v>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23">
+        <v>2m 4.424px</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>0.5</v>
       </c>
-      <c r="L41" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M41" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L41" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -3948,41 +3941,42 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>4m 14.72px</v>
-      </c>
-      <c r="F42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4m 15.72px</v>
-      </c>
-      <c r="G42" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3m 4.8px</v>
-      </c>
-      <c r="H42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 5.8px</v>
+        <v>55</v>
+      </c>
+      <c r="E42" s="16" t="str">
+        <f>INT(SUM(J42:L42)+1.62)&amp;"m "&amp;((SUM(J42:L42)+1.62)-INT(SUM(J42:L42)+1.62))*16&amp;"px"</f>
+        <v>2m 13.12px</v>
+      </c>
+      <c r="F42" s="16" t="str">
+        <f>INT(SUM(J42:L42)+0.0625+1.62)&amp;"m "&amp;((SUM(J42:L42)+0.0625+1.62)-INT(SUM(J42:L42)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 14.12px</v>
+      </c>
+      <c r="G42" s="17" t="str">
+        <f>INT(SUM(J42:L42))&amp;"m "&amp;((SUM(J42:L42))-INT(SUM(J42:L42)))*16&amp;"px"</f>
+        <v>1m 3.2px</v>
+      </c>
+      <c r="H42" s="17" t="str">
+        <f>INT(SUM(J42:L42)+0.0625)&amp;"m "&amp;((SUM(J42:L42)+0.0625)-INT(SUM(J42:L42)+0.0625))*16&amp;"px"</f>
+        <v>1m 4.2px</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 15.12px</v>
-      </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M42" s="23">
-        <v>1.4450000000000001</v>
+        <f>INT(SUM(J42:K42)+M42)&amp;"m "&amp;((SUM(J42:K42)+M42)-INT(SUM(J42:K42)+M42))*16&amp;"px"</f>
+        <v>1m 9.44px</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1.79</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -3991,46 +3985,41 @@
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 4.22px</v>
+        <v>3m 3.52px</v>
       </c>
       <c r="F43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 5.22px</v>
+        <v>3m 4.52px</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 10.3px</v>
+        <v>1m 9.6px</v>
       </c>
       <c r="H43" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>0m 11.3px</v>
+        <v>1m 10.6px</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 2.24px</v>
-      </c>
-      <c r="J43" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K43" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L43" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M43" s="23">
-        <v>0.76500000000000001</v>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -4039,46 +4028,41 @@
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 12.24px</v>
+        <v>4m 14.72px</v>
       </c>
       <c r="F44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 13.24px</v>
+        <v>4m 15.72px</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 2.32px</v>
+        <v>3m 4.8px</v>
       </c>
       <c r="H44" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 3.32px</v>
+        <v>3m 5.8px</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 2.424px</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K44" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L44" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M44" s="23">
-        <v>1.7765</v>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -4094,39 +4078,39 @@
         <v>21</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="21" t="str">
-        <f>INT(SUM(J45:L45)+1.62)&amp;"m "&amp;((SUM(J45:L45)+1.62)-INT(SUM(J45:L45)+1.62))*16&amp;"px"</f>
-        <v>2m 11.12px</v>
-      </c>
-      <c r="F45" s="21" t="str">
-        <f>INT(SUM(J45:L45)+0.0625+1.62)&amp;"m "&amp;((SUM(J45:L45)+0.0625+1.62)-INT(SUM(J45:L45)+0.0625+1.62))*16&amp;"px"</f>
-        <v>2m 12.12px</v>
-      </c>
-      <c r="G45" s="22" t="str">
-        <f>INT(SUM(J45:L45))&amp;"m "&amp;((SUM(J45:L45))-INT(SUM(J45:L45)))*16&amp;"px"</f>
-        <v>1m 1.2px</v>
-      </c>
-      <c r="H45" s="22" t="str">
-        <f>INT(SUM(J45:L45)+0.0625)&amp;"m "&amp;((SUM(J45:L45)+0.0625)-INT(SUM(J45:L45)+0.0625))*16&amp;"px"</f>
-        <v>1m 2.2px</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2m 4.22px</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 5.22px</v>
+      </c>
+      <c r="G45" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 10.3px</v>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0m 11.3px</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>INT(SUM(J45:K45)+M45)&amp;"m "&amp;((SUM(J45:K45)+M45)-INT(SUM(J45:K45)+M45))*16&amp;"px"</f>
-        <v>1m 7.44px</v>
-      </c>
-      <c r="J45" s="23">
+        <f t="shared" si="4"/>
+        <v>1m 2.24px</v>
+      </c>
+      <c r="J45" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K45" s="23">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="L45" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M45" s="23">
-        <v>1.79</v>
+      <c r="K45" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4142,39 +4126,39 @@
         <v>21</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 1.52px</v>
+        <v>2m 12.24px</v>
       </c>
       <c r="F46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 2.52px</v>
+        <v>2m 13.24px</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 7.6px</v>
+        <v>1m 2.32px</v>
       </c>
       <c r="H46" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 8.6px</v>
+        <v>1m 3.32px</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J46" s="23">
+        <v>2m 2.424px</v>
+      </c>
+      <c r="J46" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="18">
         <v>0.1875</v>
       </c>
-      <c r="L46" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M46" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L46" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -4190,39 +4174,39 @@
         <v>21</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>4m 12.72px</v>
-      </c>
-      <c r="F47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4m 13.72px</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3m 2.8px</v>
-      </c>
-      <c r="H47" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 3.8px</v>
+        <v>55</v>
+      </c>
+      <c r="E47" s="16" t="str">
+        <f>INT(SUM(J47:L47)+1.62)&amp;"m "&amp;((SUM(J47:L47)+1.62)-INT(SUM(J47:L47)+1.62))*16&amp;"px"</f>
+        <v>2m 11.12px</v>
+      </c>
+      <c r="F47" s="16" t="str">
+        <f>INT(SUM(J47:L47)+0.0625+1.62)&amp;"m "&amp;((SUM(J47:L47)+0.0625+1.62)-INT(SUM(J47:L47)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 12.12px</v>
+      </c>
+      <c r="G47" s="17" t="str">
+        <f>INT(SUM(J47:L47))&amp;"m "&amp;((SUM(J47:L47))-INT(SUM(J47:L47)))*16&amp;"px"</f>
+        <v>1m 1.2px</v>
+      </c>
+      <c r="H47" s="17" t="str">
+        <f>INT(SUM(J47:L47)+0.0625)&amp;"m "&amp;((SUM(J47:L47)+0.0625)-INT(SUM(J47:L47)+0.0625))*16&amp;"px"</f>
+        <v>1m 2.2px</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J47" s="23">
+        <f>INT(SUM(J47:K47)+M47)&amp;"m "&amp;((SUM(J47:K47)+M47)-INT(SUM(J47:K47)+M47))*16&amp;"px"</f>
+        <v>1m 7.44px</v>
+      </c>
+      <c r="J47" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K47" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L47" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M47" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K47" s="18">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1.79</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -4235,42 +4219,42 @@
         <v>17</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2m 9.22px</v>
+        <v>3m 1.52px</v>
       </c>
       <c r="F48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2m 10.22px</v>
+        <v>3m 2.52px</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>0m 15.3px</v>
+        <v>1m 7.6px</v>
       </c>
       <c r="H48" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 0.300000000000001px</v>
+        <v>1m 8.6px</v>
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>1m 7.24px</v>
-      </c>
-      <c r="J48" s="23">
+        <v>1m 13.12px</v>
+      </c>
+      <c r="J48" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K48" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M48" s="23">
-        <v>0.76500000000000001</v>
+      <c r="K48" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M48" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -4283,42 +4267,42 @@
         <v>17</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 1.24px</v>
+        <v>4m 12.72px</v>
       </c>
       <c r="F49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 2.24px</v>
+        <v>4m 13.72px</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 7.32px</v>
+        <v>3m 2.8px</v>
       </c>
       <c r="H49" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 8.32px</v>
+        <v>3m 3.8px</v>
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 7.424px</v>
-      </c>
-      <c r="J49" s="23">
+        <v>1m 13.12px</v>
+      </c>
+      <c r="J49" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K49" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M49" s="23">
-        <v>1.7765</v>
+      <c r="K49" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L49" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -4334,39 +4318,39 @@
         <v>16</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="21" t="str">
-        <f>INT(SUM(J50:L50)+1.62)&amp;"m "&amp;((SUM(J50:L50)+1.62)-INT(SUM(J50:L50)+1.62))*16&amp;"px"</f>
-        <v>3m 0.120000000000005px</v>
-      </c>
-      <c r="F50" s="21" t="str">
-        <f>INT(SUM(J50:L50)+0.0625+1.62)&amp;"m "&amp;((SUM(J50:L50)+0.0625+1.62)-INT(SUM(J50:L50)+0.0625+1.62))*16&amp;"px"</f>
-        <v>3m 1.12px</v>
-      </c>
-      <c r="G50" s="22" t="str">
-        <f>INT(SUM(J50:L50))&amp;"m "&amp;((SUM(J50:L50))-INT(SUM(J50:L50)))*16&amp;"px"</f>
-        <v>1m 6.2px</v>
-      </c>
-      <c r="H50" s="22" t="str">
-        <f>INT(SUM(J50:L50)+0.0625)&amp;"m "&amp;((SUM(J50:L50)+0.0625)-INT(SUM(J50:L50)+0.0625))*16&amp;"px"</f>
-        <v>1m 7.2px</v>
+        <v>20</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2m 9.22px</v>
+      </c>
+      <c r="F50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>2m 10.22px</v>
+      </c>
+      <c r="G50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0m 15.3px</v>
+      </c>
+      <c r="H50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1m 0.300000000000001px</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>INT(SUM(J50:K50)+M50)&amp;"m "&amp;((SUM(J50:K50)+M50)-INT(SUM(J50:K50)+M50))*16&amp;"px"</f>
-        <v>1m 12.44px</v>
-      </c>
-      <c r="J50" s="23">
+        <f t="shared" si="4"/>
+        <v>1m 7.24px</v>
+      </c>
+      <c r="J50" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K50" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="L50" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M50" s="23">
-        <v>1.79</v>
+      <c r="K50" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -4382,39 +4366,39 @@
         <v>16</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>3m 6.52px</v>
+        <v>3m 1.24px</v>
       </c>
       <c r="F51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3m 7.52px</v>
+        <v>3m 2.24px</v>
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1m 12.6px</v>
+        <v>1m 7.32px</v>
       </c>
       <c r="H51" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>1m 13.6px</v>
+        <v>1m 8.32px</v>
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2m 2.12px</v>
-      </c>
-      <c r="J51" s="23">
+        <v>2m 7.424px</v>
+      </c>
+      <c r="J51" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="18">
         <v>0.5</v>
       </c>
-      <c r="L51" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M51" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L51" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -4430,55 +4414,151 @@
         <v>16</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>5m 1.72px</v>
-      </c>
-      <c r="F52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5m 2.72px</v>
-      </c>
-      <c r="G52" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3m 7.8px</v>
-      </c>
-      <c r="H52" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3m 8.8px</v>
+        <v>55</v>
+      </c>
+      <c r="E52" s="16" t="str">
+        <f>INT(SUM(J52:L52)+1.62)&amp;"m "&amp;((SUM(J52:L52)+1.62)-INT(SUM(J52:L52)+1.62))*16&amp;"px"</f>
+        <v>3m 0.120000000000005px</v>
+      </c>
+      <c r="F52" s="16" t="str">
+        <f>INT(SUM(J52:L52)+0.0625+1.62)&amp;"m "&amp;((SUM(J52:L52)+0.0625+1.62)-INT(SUM(J52:L52)+0.0625+1.62))*16&amp;"px"</f>
+        <v>3m 1.12px</v>
+      </c>
+      <c r="G52" s="17" t="str">
+        <f>INT(SUM(J52:L52))&amp;"m "&amp;((SUM(J52:L52))-INT(SUM(J52:L52)))*16&amp;"px"</f>
+        <v>1m 6.2px</v>
+      </c>
+      <c r="H52" s="17" t="str">
+        <f>INT(SUM(J52:L52)+0.0625)&amp;"m "&amp;((SUM(J52:L52)+0.0625)-INT(SUM(J52:L52)+0.0625))*16&amp;"px"</f>
+        <v>1m 7.2px</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>2m 2.12px</v>
-      </c>
-      <c r="J52" s="23">
+        <f>INT(SUM(J52:K52)+M52)&amp;"m "&amp;((SUM(J52:K52)+M52)-INT(SUM(J52:K52)+M52))*16&amp;"px"</f>
+        <v>1m 12.44px</v>
+      </c>
+      <c r="J52" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K52" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M52" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K52" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M52" s="18">
+        <v>1.79</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="A53" s="7">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3m 6.52px</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>3m 7.52px</v>
+      </c>
+      <c r="G53" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>1m 12.6px</v>
+      </c>
+      <c r="H53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1m 13.6px</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1.4450000000000001</v>
+      </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>5m 1.72px</v>
+      </c>
+      <c r="F54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>5m 2.72px</v>
+      </c>
+      <c r="G54" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>3m 7.8px</v>
+      </c>
+      <c r="H54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3m 8.8px</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4487,14 +4567,14 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I52">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:I54">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4508,7 +4588,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C2B50-FE41-4DD7-B1DD-5217FB61F131}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4527,40 +4607,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>14</v>
@@ -4575,19 +4655,19 @@
         <v>8</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4596,32 +4676,32 @@
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E46" si="0">SUM(J3:L3)+1.62</f>
+        <f t="shared" ref="E3:E48" si="0">SUM(J3:L3)+1.62</f>
         <v>1.62</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F46" si="1">SUM(J3:L3)+0.0625+1.62</f>
+        <f t="shared" ref="F3:F48" si="1">SUM(J3:L3)+0.0625+1.62</f>
         <v>1.6825000000000001</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G46" si="2">SUM(J3:L3)</f>
+        <f t="shared" ref="G3:G48" si="2">SUM(J3:L3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H46" si="3">SUM(J3:L3)+0.0625</f>
+        <f t="shared" ref="H3:H48" si="3">SUM(J3:L3)+0.0625</f>
         <v>6.25E-2</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I46" si="4">SUM(J3:K3)+M3</f>
+        <f t="shared" ref="I3:I48" si="4">SUM(J3:K3)+M3</f>
         <v>1.62</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18">
         <v>1.62</v>
       </c>
       <c r="N3" s="5"/>
@@ -4635,7 +4715,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
@@ -4657,12 +4737,12 @@
         <f t="shared" si="4"/>
         <v>1.2075</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18">
         <v>1.62</v>
       </c>
       <c r="N4" s="5"/>
@@ -4677,7 +4757,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -4699,12 +4779,12 @@
         <f t="shared" si="4"/>
         <v>1.2075</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
         <v>1.62</v>
       </c>
       <c r="N5" s="5"/>
@@ -4718,7 +4798,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
@@ -4740,12 +4820,12 @@
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18">
         <v>1.62</v>
       </c>
       <c r="N6" s="5"/>
@@ -4762,7 +4842,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
@@ -4784,14 +4864,14 @@
         <f t="shared" si="4"/>
         <v>1.395</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>-0.41249999999999998</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18">
         <v>1.62</v>
       </c>
       <c r="N7" s="5"/>
@@ -4808,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -4830,14 +4910,14 @@
         <f t="shared" si="4"/>
         <v>1.7075</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18">
         <v>1.62</v>
       </c>
       <c r="N8" s="5"/>
@@ -4870,12 +4950,12 @@
         <f t="shared" si="4"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
         <v>0.26874999999999999</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="18">
         <v>0.76500000000000001</v>
       </c>
       <c r="N9" s="5"/>
@@ -4886,7 +4966,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
@@ -4908,12 +4988,12 @@
         <f t="shared" si="4"/>
         <v>1.425</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <v>0.51249999999999996</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="18">
         <v>1.425</v>
       </c>
       <c r="N10" s="5"/>
@@ -4924,35 +5004,35 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2324999999999999</v>
+        <f>SUM(J11:L11)+1.62</f>
+        <v>2.1575000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2949999999999999</v>
+        <f>SUM(J11:L11)+0.0625+1.62</f>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.61250000000000004</v>
+        <f>SUM(J11:L11)</f>
+        <v>0.53749999999999998</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.67500000000000004</v>
+        <f>SUM(J11:L11)+0.0625</f>
+        <v>0.6</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="4"/>
-        <v>1.52</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M11" s="23">
-        <v>1.52</v>
+        <f>SUM(J11:K11)+M11</f>
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0.27510000000000001</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -4962,34 +5042,34 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>2.3387500000000001</v>
+        <v>2.2324999999999999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>2.4012500000000001</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="3"/>
-        <v>0.78125</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="4"/>
         <v>1.52</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M12" s="18">
         <v>1.52</v>
       </c>
       <c r="N12" s="5"/>
@@ -5000,35 +5080,35 @@
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>2.39</v>
+        <v>2.3387500000000001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>2.4525000000000001</v>
+        <v>2.4012500000000001</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="3"/>
-        <v>0.83250000000000002</v>
+        <v>0.78125</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>1.7765</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M13" s="23">
-        <v>1.7765</v>
+        <v>1.52</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1.52</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -5038,35 +5118,35 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>2.4637500000000001</v>
+        <v>2.39</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>2.5262500000000001</v>
+        <v>2.4525000000000001</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="2"/>
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="3"/>
-        <v>0.90625</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="4"/>
-        <v>1.52</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23">
-        <v>0.84375</v>
-      </c>
-      <c r="M14" s="23">
-        <v>1.52</v>
+        <v>1.7765</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -5076,35 +5156,35 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>2.72</v>
+        <v>2.4637500000000001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>2.7825000000000002</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="3"/>
-        <v>1.1625000000000001</v>
+        <v>0.90625</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="4"/>
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M15" s="23">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
+        <v>0.84375</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1.52</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -5113,37 +5193,35 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>4.42</v>
+        <v>2.72</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>4.4824999999999999</v>
+        <v>2.7825000000000002</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="3"/>
-        <v>2.8624999999999998</v>
+        <v>1.1625000000000001</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="4"/>
         <v>1.4450000000000001</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="18">
         <v>1.4450000000000001</v>
       </c>
       <c r="N16" s="5"/>
@@ -5156,35 +5234,35 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>4.42</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>1.8525</v>
+        <v>4.4824999999999999</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="3"/>
-        <v>0.23250000000000001</v>
+        <v>2.8624999999999998</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="4"/>
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="M17" s="23">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -5193,36 +5271,38 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>3.02</v>
+        <v>1.79</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>3.0825</v>
+        <v>1.8525</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="3"/>
-        <v>1.4624999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="4"/>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M18" s="23">
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -5231,10 +5311,8 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
@@ -5254,15 +5332,15 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>1.79</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18">
         <v>1.4</v>
       </c>
-      <c r="M19" s="23">
-        <v>1.79</v>
+      <c r="M19" s="18">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -5274,35 +5352,35 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>5.0199999999999996</v>
+        <v>3.02</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>5.0824999999999996</v>
+        <v>3.0825</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="2"/>
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="3"/>
-        <v>3.4624999999999999</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="4"/>
-        <v>2.6</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="M20" s="23">
-        <v>2.6</v>
+        <v>1.79</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1.79</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -5311,41 +5389,38 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>2.0762499999999999</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>2.1387499999999999</v>
+        <v>5.0824999999999996</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>0.45624999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="3"/>
-        <v>0.51875000000000004</v>
+        <v>3.4624999999999999</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="4"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M21" s="23">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="M21" s="18">
+        <v>2.6</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -5358,37 +5433,37 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>2.3200000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>2.3825000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="3"/>
-        <v>0.76249999999999996</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>1.6125</v>
-      </c>
-      <c r="J22" s="23">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J22" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M22" s="23">
-        <v>1.425</v>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -5401,37 +5476,37 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>2.42</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>2.4824999999999999</v>
+        <v>2.3825000000000003</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="3"/>
-        <v>0.86250000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>1.7075</v>
-      </c>
-      <c r="J23" s="23">
+        <v>1.6125</v>
+      </c>
+      <c r="J23" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="M23" s="23">
-        <v>1.52</v>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1.425</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -5444,37 +5519,37 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5262500000000001</v>
+        <f>SUM(J24:L24)+1.62</f>
+        <v>2.3450000000000002</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5887500000000001</v>
+        <f>SUM(J24:L24)+0.0625+1.62</f>
+        <v>2.4075000000000002</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.90625</v>
+        <f>SUM(J24:L24)</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.96875</v>
+        <f>SUM(J24:L24)+0.0625</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="4"/>
-        <v>1.7075</v>
-      </c>
-      <c r="J24" s="23">
+        <f>SUM(J24:K24)+M24</f>
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="J24" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="M24" s="23">
-        <v>1.52</v>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0.27510000000000001</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -5487,37 +5562,37 @@
         <v>17</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>2.5775000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>2.4824999999999999</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>0.95750000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>1.964</v>
-      </c>
-      <c r="J25" s="23">
+        <v>1.7075</v>
+      </c>
+      <c r="J25" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M25" s="23">
-        <v>1.7765</v>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1.52</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -5530,36 +5605,36 @@
         <v>17</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>2.6512500000000001</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>2.7137500000000001</v>
+        <v>2.5887500000000001</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>1.03125</v>
+        <v>0.90625</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="3"/>
-        <v>1.09375</v>
+        <v>0.96875</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
         <v>1.7075</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23">
-        <v>0.84375</v>
-      </c>
-      <c r="M26" s="23">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="M26" s="18">
         <v>1.52</v>
       </c>
       <c r="N26" s="5"/>
@@ -5573,37 +5648,37 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>2.9075000000000002</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>1.2875000000000001</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="3"/>
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J27" s="23">
+        <v>1.964</v>
+      </c>
+      <c r="J27" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M27" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -5616,37 +5691,37 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>4.6074999999999999</v>
+        <v>2.6512500000000001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>4.67</v>
+        <v>2.7137500000000001</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>2.9874999999999998</v>
+        <v>1.03125</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>1.09375</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J28" s="23">
+        <v>1.7075</v>
+      </c>
+      <c r="J28" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M28" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
+        <v>0.84375</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1.52</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -5659,37 +5734,37 @@
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>1.9775</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>2.04</v>
+        <v>2.97</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>0.35750000000000004</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="3"/>
-        <v>0.42000000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="4"/>
-        <v>1.2324999999999999</v>
-      </c>
-      <c r="J29" s="23">
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J29" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="M29" s="23">
-        <v>1.0449999999999999</v>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -5702,37 +5777,37 @@
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>3.2075</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="2"/>
-        <v>1.5874999999999999</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="3"/>
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="4"/>
-        <v>2.4624999999999999</v>
-      </c>
-      <c r="J30" s="23">
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J30" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M30" s="23">
-        <v>2.2749999999999999</v>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1.4450000000000001</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -5744,39 +5819,38 @@
       <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>2.5700000000000003</v>
+        <v>1.9775</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>2.6325000000000003</v>
+        <v>2.04</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="2"/>
-        <v>0.95</v>
+        <v>0.35750000000000004</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="3"/>
-        <v>1.0125</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="4"/>
-        <v>1.34</v>
-      </c>
-      <c r="J31" s="23">
-        <v>-0.45</v>
-      </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M31" s="23">
-        <v>1.79</v>
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1.0449999999999999</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -5788,39 +5862,38 @@
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>5.7075000000000005</v>
+        <v>3.2075</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>5.7700000000000005</v>
+        <v>3.27</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>4.0875000000000004</v>
+        <v>1.5874999999999999</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="3"/>
-        <v>4.1500000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="4"/>
-        <v>3.2875000000000001</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0.6875</v>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="M32" s="23">
-        <v>2.6</v>
+        <v>2.4624999999999999</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M32" s="18">
+        <v>2.2749999999999999</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -5829,41 +5902,42 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>2.0762499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>2.1387499999999999</v>
+        <v>2.6325000000000003</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>0.45624999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="3"/>
-        <v>0.51875000000000004</v>
+        <v>1.0125</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L33" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M33" s="23">
-        <v>0.76500000000000001</v>
+        <v>1.34</v>
+      </c>
+      <c r="J33" s="18">
+        <v>-0.45</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1.79</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -5872,41 +5946,42 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>2.5775000000000001</v>
+        <v>5.7075000000000005</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>0.95750000000000002</v>
+        <v>4.0875000000000004</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="4"/>
-        <v>1.964</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L34" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M34" s="23">
-        <v>1.7765</v>
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="M34" s="18">
+        <v>2.6</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -5915,42 +5990,41 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>2.5075000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>2.5700000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="2"/>
-        <v>0.88749999999999996</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="4"/>
-        <v>1.2775000000000001</v>
-      </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="L35" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M35" s="23">
-        <v>1.79</v>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.76500000000000001</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -5963,37 +6037,37 @@
         <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>2.9075000000000002</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="2"/>
-        <v>1.2875000000000001</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="3"/>
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23">
+        <v>1.964</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18">
         <v>0.1875</v>
       </c>
-      <c r="L36" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M36" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L36" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.7765</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -6002,41 +6076,42 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>4.6074999999999999</v>
+        <v>2.5075000000000003</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>4.67</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="2"/>
-        <v>2.9874999999999998</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>0.95</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="4"/>
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L37" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M37" s="23">
-        <v>1.4450000000000001</v>
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1.79</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -6046,121 +6121,126 @@
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>2.3887499999999999</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>2.4512499999999999</v>
+        <v>2.97</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="2"/>
-        <v>0.76875000000000004</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="3"/>
-        <v>0.83125000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="4"/>
-        <v>1.2650000000000001</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M38" s="23">
-        <v>0.76500000000000001</v>
-      </c>
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>2.9525000000000001</v>
+        <v>4.67</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="2"/>
-        <v>1.27</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="3"/>
-        <v>1.3325</v>
+        <v>3.05</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="4"/>
-        <v>2.2765</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M39" s="23">
-        <v>1.7765</v>
-      </c>
+        <v>1.6325000000000001</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L39" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
-        <v>2.8200000000000003</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>2.8825000000000003</v>
+        <v>2.4512499999999999</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="3"/>
-        <v>1.2625</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="4"/>
-        <v>1.59</v>
-      </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="L40" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M40" s="23">
-        <v>1.79</v>
+        <v>1.2650000000000001</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -6171,170 +6251,161 @@
         <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="0"/>
-        <v>3.22</v>
+        <v>2.89</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>3.2825000000000002</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="3"/>
-        <v>1.6625000000000001</v>
+        <v>1.3325</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="4"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23">
+        <v>2.2765</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>0.5</v>
       </c>
-      <c r="L41" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M41" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L41" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1.7765</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>39</v>
       </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="0"/>
-        <v>4.92</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>4.9824999999999999</v>
+        <v>2.8825000000000003</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="2"/>
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="3"/>
-        <v>3.3624999999999998</v>
+        <v>1.2625</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="4"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M42" s="23">
-        <v>1.4450000000000001</v>
+        <v>1.59</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1.79</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="0"/>
-        <v>2.2637499999999999</v>
+        <v>3.22</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="1"/>
-        <v>2.3262499999999999</v>
+        <v>3.2825000000000002</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="2"/>
-        <v>0.64375000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="3"/>
-        <v>0.70625000000000004</v>
+        <v>1.6625000000000001</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="4"/>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="J43" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K43" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L43" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M43" s="23">
-        <v>0.76500000000000001</v>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>2.7650000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>2.8275000000000001</v>
+        <v>4.9824999999999999</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="2"/>
-        <v>1.145</v>
+        <v>3.3</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="3"/>
-        <v>1.2075</v>
+        <v>3.3624999999999998</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="4"/>
-        <v>2.1515</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="K44" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L44" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M44" s="23">
-        <v>1.7765</v>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -6348,39 +6419,39 @@
         <v>21</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="0"/>
-        <v>2.6950000000000003</v>
+        <v>2.2637499999999999</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>2.7575000000000003</v>
+        <v>2.3262499999999999</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="2"/>
-        <v>1.075</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="3"/>
-        <v>1.1375</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="4"/>
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="J45" s="23">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="J45" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K45" s="23">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="L45" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M45" s="23">
-        <v>1.79</v>
+      <c r="K45" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -6394,39 +6465,39 @@
         <v>21</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="0"/>
-        <v>3.0950000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
-        <v>3.1575000000000002</v>
+        <v>2.8275000000000001</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="2"/>
-        <v>1.4750000000000001</v>
+        <v>1.145</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="3"/>
-        <v>1.5375000000000001</v>
+        <v>1.2075</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="4"/>
-        <v>1.82</v>
-      </c>
-      <c r="J46" s="23">
+        <v>2.1515</v>
+      </c>
+      <c r="J46" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="18">
         <v>0.1875</v>
       </c>
-      <c r="L46" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M46" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L46" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1.7765</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -6440,39 +6511,39 @@
         <v>21</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" ref="E47:E52" si="5">SUM(J47:L47)+1.62</f>
-        <v>4.7949999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.6950000000000003</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:F52" si="6">SUM(J47:L47)+0.0625+1.62</f>
-        <v>4.8574999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2.7575000000000003</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" ref="G47:G52" si="7">SUM(J47:L47)</f>
-        <v>3.1749999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.075</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" ref="H47:H52" si="8">SUM(J47:L47)+0.0625</f>
-        <v>3.2374999999999998</v>
+        <f t="shared" si="3"/>
+        <v>1.1375</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" ref="I47:I52" si="9">SUM(J47:K47)+M47</f>
-        <v>1.82</v>
-      </c>
-      <c r="J47" s="23">
+        <f t="shared" si="4"/>
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="J47" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K47" s="23">
-        <v>0.1875</v>
-      </c>
-      <c r="L47" s="23">
-        <v>2.8</v>
-      </c>
-      <c r="M47" s="23">
-        <v>1.4450000000000001</v>
+      <c r="K47" s="18">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1.79</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -6483,42 +6554,42 @@
         <v>17</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5762499999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.0950000000000002</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="6"/>
-        <v>2.6387499999999999</v>
+        <f t="shared" si="1"/>
+        <v>3.1575000000000002</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="7"/>
-        <v>0.95625000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.4750000000000001</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="8"/>
-        <v>1.01875</v>
+        <f t="shared" si="3"/>
+        <v>1.5375000000000001</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="9"/>
-        <v>1.4525000000000001</v>
-      </c>
-      <c r="J48" s="23">
+        <f t="shared" si="4"/>
+        <v>1.82</v>
+      </c>
+      <c r="J48" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K48" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="23">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="M48" s="23">
-        <v>0.76500000000000001</v>
+      <c r="K48" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M48" s="18">
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -6529,42 +6600,42 @@
         <v>17</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="5"/>
-        <v>3.0775000000000001</v>
+        <f t="shared" ref="E49:E54" si="5">SUM(J49:L49)+1.62</f>
+        <v>4.7949999999999999</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="6"/>
-        <v>3.14</v>
+        <f t="shared" ref="F49:F54" si="6">SUM(J49:L49)+0.0625+1.62</f>
+        <v>4.8574999999999999</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4575</v>
+        <f t="shared" ref="G49:G54" si="7">SUM(J49:L49)</f>
+        <v>3.1749999999999998</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="8"/>
-        <v>1.52</v>
+        <f t="shared" ref="H49:H54" si="8">SUM(J49:L49)+0.0625</f>
+        <v>3.2374999999999998</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="9"/>
-        <v>2.464</v>
-      </c>
-      <c r="J49" s="23">
+        <f t="shared" ref="I49:I54" si="9">SUM(J49:K49)+M49</f>
+        <v>1.82</v>
+      </c>
+      <c r="J49" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K49" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="M49" s="23">
-        <v>1.7765</v>
+      <c r="K49" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="L49" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -6578,39 +6649,39 @@
         <v>16</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="5"/>
-        <v>3.0075000000000003</v>
+        <v>2.5762499999999999</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="6"/>
-        <v>3.0700000000000003</v>
+        <v>2.6387499999999999</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="7"/>
-        <v>1.3875</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="8"/>
-        <v>1.45</v>
+        <v>1.01875</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="9"/>
-        <v>1.7775000000000001</v>
-      </c>
-      <c r="J50" s="23">
+        <v>1.4525000000000001</v>
+      </c>
+      <c r="J50" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K50" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="L50" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="M50" s="23">
-        <v>1.79</v>
+      <c r="K50" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -6624,39 +6695,39 @@
         <v>16</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
-        <v>3.4075000000000002</v>
+        <v>3.0775000000000001</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="6"/>
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="7"/>
-        <v>1.7875000000000001</v>
+        <v>1.4575</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="8"/>
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="9"/>
-        <v>2.1325000000000003</v>
-      </c>
-      <c r="J51" s="23">
+        <v>2.464</v>
+      </c>
+      <c r="J51" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="18">
         <v>0.5</v>
       </c>
-      <c r="L51" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M51" s="23">
-        <v>1.4450000000000001</v>
+      <c r="L51" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1.7765</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -6670,38 +6741,130 @@
         <v>16</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="5"/>
-        <v>5.1074999999999999</v>
+        <v>3.0075000000000003</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="6"/>
-        <v>5.17</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="7"/>
-        <v>3.4874999999999998</v>
+        <v>1.3875</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" si="8"/>
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="9"/>
+        <v>1.7775000000000001</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K52" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="M52" s="18">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4075000000000002</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="8"/>
+        <v>1.85</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="9"/>
         <v>2.1325000000000003</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J53" s="18">
         <v>0.1875</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K53" s="18">
         <v>0.5</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L53" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="5"/>
+        <v>5.1074999999999999</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="6"/>
+        <v>5.17</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="8"/>
+        <v>3.55</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="9"/>
+        <v>2.1325000000000003</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="18">
         <v>2.8</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M54" s="18">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -6712,14 +6875,14 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I52">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:I54">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6752,40 +6915,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>14</v>
@@ -6800,19 +6963,19 @@
         <v>8</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -6821,7 +6984,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E44" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
@@ -6860,7 +7023,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6902,7 +7065,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6943,7 +7106,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6987,7 +7150,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7033,7 +7196,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7111,7 +7274,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7149,7 +7312,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7187,7 +7350,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7263,7 +7426,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7379,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7417,7 +7580,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7501,7 +7664,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7544,7 +7707,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7587,7 +7750,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7673,7 +7836,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7802,7 +7965,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7845,7 +8008,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8017,7 +8180,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8189,7 +8352,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8379,7 +8542,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8571,7 +8734,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8616,13 +8779,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8654,40 +8817,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>14</v>
@@ -8702,19 +8865,19 @@
         <v>8</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8723,7 +8886,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E44" si="0">SUM(J3:L3)+1.62</f>
@@ -8762,7 +8925,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
@@ -8804,7 +8967,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -8845,7 +9008,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
@@ -8889,7 +9052,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
@@ -8935,7 +9098,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
@@ -9013,7 +9176,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
@@ -9051,7 +9214,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
@@ -9089,7 +9252,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
@@ -9165,7 +9328,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
@@ -9281,7 +9444,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
@@ -9319,7 +9482,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
@@ -9403,7 +9566,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
@@ -9446,7 +9609,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
@@ -9489,7 +9652,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
@@ -9575,7 +9738,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
@@ -9704,7 +9867,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
@@ -9747,7 +9910,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
@@ -9919,7 +10082,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
@@ -10091,7 +10254,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
@@ -10275,7 +10438,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
@@ -10459,7 +10622,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
@@ -10502,13 +10665,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10521,7 +10684,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024B830-7371-4AE1-9ABB-4F9074C93617}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10537,24 +10700,24 @@
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -10566,7 +10729,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
@@ -10584,13 +10747,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
         <v>-0.41249999999999998</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D19" si="0">C5*16</f>
+        <f t="shared" ref="D5:D20" si="0">C5*16</f>
         <v>-6.6</v>
       </c>
     </row>
@@ -10599,7 +10762,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8">
         <v>-0.41249999999999998</v>
@@ -10614,7 +10777,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -10629,7 +10792,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8">
         <v>0.26874999999999999</v>
@@ -10641,10 +10804,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
         <v>0.51249999999999996</v>
@@ -10656,130 +10819,130 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
-        <v>0.61250000000000004</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <f>C10*16</f>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>12.32</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8">
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>44.8</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8">
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>2.72</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>22.4</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8">
         <v>1.4</v>
@@ -10791,32 +10954,32 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8">
         <v>3.4</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>54.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="20">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="D21" s="20">
-        <f>C21*16</f>
-        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10824,84 +10987,83 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="20">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="D22" s="15">
+        <f>C22*16</f>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="15">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D22" s="20">
-        <f>C22*16</f>
+      <c r="D23" s="15">
+        <f>C23*16</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="20">
-        <v>-0.2</v>
-      </c>
-      <c r="D24" s="20">
-        <f>C24*16</f>
-        <v>-3.2</v>
-      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="20">
+        <v>55</v>
+      </c>
+      <c r="C25" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="D25" s="15">
+        <f>C25*16</f>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15">
         <v>0.5</v>
       </c>
-      <c r="D25" s="20">
-        <f>C25*16</f>
+      <c r="D26" s="15">
+        <f>C26*16</f>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="20">
-        <v>-0.45</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" ref="D27:D29" si="1">C27*16</f>
-        <v>-7.2</v>
-      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="20">
-        <f t="shared" ref="C28:C29" si="2">0.25-1/16</f>
-        <v>0.1875</v>
-      </c>
-      <c r="D28" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="15">
+        <v>-0.45</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:D30" si="1">C28*16</f>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10909,13 +11071,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="20">
-        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" ref="C29:C31" si="2">0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -10925,32 +11087,64 @@
         <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0.6875</v>
-      </c>
-      <c r="D30" s="20">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" ref="D31" si="3">C31*16</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="20">
+        <v>22</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="D32" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="15">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D32" s="20">
-        <f>C32*16</f>
+      <c r="D34" s="15">
+        <f>C34*16</f>
         <v>3</v>
       </c>
     </row>
@@ -10962,7 +11156,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B419FCC8-56A1-4CCA-9C20-925A343FC358}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10976,24 +11170,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -11005,7 +11199,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
@@ -11029,13 +11223,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
         <v>-0.35</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D17" si="0">C5*16</f>
+        <f t="shared" ref="D5:D18" si="0">C5*16</f>
         <v>-5.6</v>
       </c>
     </row>
@@ -11044,7 +11238,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8">
         <v>-0.35</v>
@@ -11059,7 +11253,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -11074,7 +11268,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8">
         <v>0.32500000000000001</v>
@@ -11086,10 +11280,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
         <v>0.52500000000000002</v>
@@ -11101,10 +11295,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
         <v>0.6</v>
@@ -11116,10 +11310,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
         <v>0.66249999999999998</v>
@@ -11131,149 +11325,149 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
-        <v>0.77200000000000002</v>
+        <v>0.71875</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>12.352</v>
+        <f>C12*16</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8">
-        <v>0.85</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>12.352</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8">
-        <v>1.1599999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8">
-        <v>2.81</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>44.96</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8">
-        <v>0.19500000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>3.12</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8">
         <v>1.425</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>22.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="8">
         <v>0.04</v>
       </c>
-      <c r="D19" s="8">
-        <f>C19*16</f>
+      <c r="D20" s="8">
+        <f>C20*16</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.39</v>
       </c>
-      <c r="D21" s="8">
-        <f>C21*16</f>
+      <c r="D22" s="8">
+        <f>C22*16</f>
         <v>6.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D23" s="8">
-        <f>C23*16</f>
-        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -11281,7 +11475,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8">
         <v>0.14000000000000001</v>
@@ -11291,18 +11485,33 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="8">
-        <f>C26*16</f>
+      <c r="D25" s="8">
+        <f>C25*16</f>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27" s="8">
+        <f>C27*16</f>
         <v>2.2400000000000002</v>
       </c>
     </row>
